--- a/xlsx/巴基斯坦_intext.xlsx
+++ b/xlsx/巴基斯坦_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1209">
   <si>
     <t>巴基斯坦</t>
   </si>
@@ -29,7 +29,7 @@
     <t>巴勒斯坦</t>
   </si>
   <si>
-    <t>政策_政策_美國_巴基斯坦</t>
+    <t>政策_政策_美国_巴基斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E5%9B%BD%E6%97%97</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E4%BD%91%E7%A5%9E%E5%9C%A3%E7%9A%84%E5%9C%9F%E5%9C%B0</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%A0%A1</t>
   </si>
   <si>
-    <t>伊斯蘭堡</t>
+    <t>伊斯兰堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E5%A5%87</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%88%88%E9%87%8C%E5%B3%B0</t>
   </si>
   <si>
-    <t>喬戈里峰</t>
+    <t>乔戈里峰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%8B%94</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E9%83%BD%E8%AA%9E</t>
   </si>
   <si>
-    <t>烏爾都語</t>
+    <t>乌尔都语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BB%80%E5%9C%96%E6%97%8F</t>
   </si>
   <si>
-    <t>普什圖族</t>
+    <t>普什图族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E5%BE%B7%E6%97%8F</t>
@@ -215,25 +215,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
   </si>
   <si>
-    <t>曆法</t>
+    <t>历法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9B%86</t>
   </si>
   <si>
-    <t>公曆</t>
+    <t>公历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E6%97%A5</t>
@@ -251,31 +251,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>家用電源列表</t>
+    <t>家用电源列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
+    <t>联邦制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E8%AE%AE%E4%BC%9A</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -299,31 +299,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>巴基斯坦總統</t>
+    <t>巴基斯坦总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%A7%86%E5%8A%AA%E6%81%A9%C2%B7%E4%BE%AF%E8%B3%BD%E5%9B%A0</t>
   </si>
   <si>
-    <t>馬姆努恩·侯賽因</t>
+    <t>马姆努恩·侯赛因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>巴基斯坦總理</t>
+    <t>巴基斯坦总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%B8%8C%E5%BE%B7%C2%B7%E5%93%88%E5%9D%8E%C2%B7%E9%98%BF%E5%B7%B4%E8%A5%BF</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E7%9B%A7%E6%AF%94</t>
   </si>
   <si>
-    <t>巴基斯坦盧比</t>
+    <t>巴基斯坦卢比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E9%98%BF%E9%87%8C%C2%B7%E7%9C%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>穆罕默德·阿里·真納</t>
+    <t>穆罕默德·阿里·真纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E8%8A%B1</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.pk</t>
@@ -419,21 +419,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%A6%E8%A3%9D%E9%83%A8%E9%9A%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國武裝部隊列表</t>
+    <t>各国武装部队列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B0%94%E9%83%BD%E8%AF%AD</t>
   </si>
   <si>
-    <t>乌尔都语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
   </si>
   <si>
@@ -509,9 +506,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%A0%A1</t>
   </si>
   <si>
-    <t>伊斯兰堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
   </si>
   <si>
@@ -521,9 +515,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯兰教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
   </si>
   <si>
@@ -611,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6-%E5%B8%8C%E8%87%98%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>印度-希臘王國</t>
+    <t>印度-希腊王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9F%BA%E6%B3%B0%E4%BA%BA</t>
@@ -713,15 +704,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E8%87%A5%E5%85%92%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>莫臥兒帝國</t>
+    <t>莫卧儿帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>英屬印度</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B7%B4%E5%88%86%E6%B2%BB</t>
   </si>
   <si>
@@ -749,9 +737,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E9%98%BF%E9%87%8C%C2%B7%E7%9C%9F%E7%BA%B3</t>
   </si>
   <si>
-    <t>穆罕默德·阿里·真纳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%90%88%E5%B0%94</t>
   </si>
   <si>
@@ -761,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%B7%B4%E9%A0%93%E6%96%B9%E6%A1%88</t>
   </si>
   <si>
-    <t>蒙巴頓方案</t>
+    <t>蒙巴顿方案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%A2%86</t>
@@ -803,15 +788,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>国家面积列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%B5%B7</t>
   </si>
   <si>
@@ -965,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E8%AC%A8-%E5%85%8B%E4%BB%80%E7%B1%B3%E7%88%BE%E9%82%A6</t>
   </si>
   <si>
-    <t>查謨-克什米爾邦</t>
+    <t>查谟-克什米尔邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%96%87%E6%98%86%E4%BB%91</t>
@@ -1067,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BA%AB%E7%88%BE</t>
   </si>
   <si>
-    <t>蘇庫爾</t>
+    <t>苏库尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E7%89%B9</t>
@@ -1139,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E9%87%8C%E5%A4%AB</t>
@@ -1157,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9F%E9%BE%8D%E6%88%B0%E6%A9%9F</t>
   </si>
   <si>
-    <t>梟龍戰機</t>
+    <t>枭龙战机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E6%B5%B7%E5%86%9B</t>
@@ -1169,15 +1151,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>巴基斯坦空軍</t>
+    <t>巴基斯坦空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%AD%E9%BE%99%E6%88%98%E6%9C%BA</t>
   </si>
   <si>
-    <t>枭龙战机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%BB%83-8</t>
   </si>
   <si>
@@ -1199,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>太空計劃</t>
+    <t>太空计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%EF%BC%8D%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%98%E4%BA%89</t>
@@ -1211,13 +1190,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1965%E5%B9%B4%E5%8D%B0%E5%B7%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>1965年印巴戰爭</t>
+    <t>1965年印巴战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E8%BF%91%E5%B9%B3</t>
@@ -1259,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>經濟體</t>
+    <t>经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E4%B8%AD%E5%9B%BD%E5%AE%B6</t>
@@ -1277,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>金融服務</t>
+    <t>金融服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%A7%E5%B8%81%E5%9F%BA%E9%87%91%E7%BB%84%E7%BB%87</t>
@@ -1289,15 +1268,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
   </si>
   <si>
-    <t>国内生产总值</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7</t>
   </si>
   <si>
-    <t>购买力平价</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
@@ -1325,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E7%99%BC</t>
   </si>
   <si>
-    <t>批發</t>
+    <t>批发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%94%AE</t>
@@ -1337,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A</t>
   </si>
   <si>
-    <t>電訊</t>
+    <t>电讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6</t>
@@ -1421,9 +1394,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%90%88%E7%88%BE</t>
   </si>
   <si>
-    <t>拉合爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%90%89%E5%85%B0%E7%93%A6%E6%8B%89</t>
   </si>
   <si>
@@ -1439,13 +1409,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%82%91%E6%8B%89%E7%89%B9</t>
   </si>
   <si>
-    <t>古傑拉特</t>
+    <t>古杰拉特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E8%B5%AB%E5%8B%92%E5%A7%86</t>
   </si>
   <si>
-    <t>傑赫勒姆</t>
+    <t>杰赫勒姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%88%88%E8%BE%BE</t>
@@ -1457,21 +1427,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E8%83%A1%E5%B8%83%E7%88%BE</t>
   </si>
   <si>
-    <t>謝胡布爾</t>
+    <t>谢胡布尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%B8%B9</t>
   </si>
   <si>
-    <t>馬爾丹</t>
+    <t>马尔丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BB%80%E5%9B%BE%E6%97%8F</t>
   </si>
   <si>
-    <t>普什图族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%81%E9%81%AE%E6%99%AE%E8%AF%AD</t>
   </si>
   <si>
@@ -1523,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/A1GP%E6%B1%BD%E8%BB%8A%E5%A4%A7%E7%8D%8E%E8%B3%BD</t>
   </si>
   <si>
-    <t>A1GP汽車大獎賽</t>
+    <t>A1GP汽车大奖赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%95%E5%9D%91</t>
@@ -1559,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%AF%80</t>
   </si>
   <si>
-    <t>春節</t>
+    <t>春节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%88%92%E6%8B%89%E8%8A%82</t>
@@ -1571,7 +1538,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%9B%86</t>
   </si>
   <si>
-    <t>伊斯蘭曆</t>
+    <t>伊斯兰历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BA%AA%E8%8A%82</t>
@@ -1583,13 +1550,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E9%BD%8B%E7%AF%80</t>
   </si>
   <si>
-    <t>開齋節</t>
+    <t>开斋节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%88%BE%E9%82%A6%E7%AF%80</t>
   </si>
   <si>
-    <t>古爾邦節</t>
+    <t>古尔邦节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
@@ -1613,7 +1580,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
@@ -1643,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>Template talk-亞洲</t>
+    <t>Template talk-亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
@@ -1685,13 +1652,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>臺灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
@@ -1859,7 +1826,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
   </si>
   <si>
-    <t>阿布哈茲</t>
+    <t>阿布哈兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
@@ -1919,7 +1886,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
@@ -1949,13 +1916,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
@@ -1979,13 +1946,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -1997,7 +1964,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -2009,7 +1976,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -2033,9 +2000,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
   </si>
   <si>
@@ -2045,7 +2009,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -2069,21 +2033,15 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%9B%9F</t>
   </si>
   <si>
@@ -2093,7 +2051,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%94%E5%9B%BD%E4%BC%9A%E6%99%A4%E6%9C%BA%E5%88%B6</t>
@@ -2261,7 +2219,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -2279,7 +2237,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -2339,19 +2297,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>湯加</t>
+    <t>汤加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
@@ -2381,7 +2339,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞什摩及卡地爾群島</t>
+    <t>亚什摩及卡地尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -2393,9 +2351,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>科科斯（基林）群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2405,7 +2360,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>賀得及麥唐納群島</t>
+    <t>贺得及麦唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
@@ -2423,7 +2378,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -2465,9 +2420,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A2%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>英属印度洋领地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2513,7 +2465,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -2531,7 +2483,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B3%B6%E8%88%87%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>南喬治亞島與南桑威奇群島</t>
+    <t>南乔治亚岛与南桑威奇群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E4%B8%8E%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -2567,7 +2519,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -2681,13 +2633,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -2705,19 +2657,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫洛民族解放陣線</t>
+    <t>莫洛民族解放阵线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
@@ -2765,15 +2714,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
@@ -2789,9 +2732,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
@@ -2813,9 +2753,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中非共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
   </si>
   <si>
@@ -2939,7 +2876,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
@@ -2987,7 +2924,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -3053,13 +2990,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美帝國主義</t>
+    <t>美帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -3095,7 +3032,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E9%82%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>單邊主義</t>
+    <t>单边主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%98%B6%E6%AE%B5%E5%89%8A%E5%87%8F%E6%88%98%E7%95%A5%E6%AD%A6%E5%99%A8%E6%9D%A1%E7%BA%A6</t>
@@ -3107,7 +3044,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>反彈道飛彈條約</t>
+    <t>反弹道飞弹条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%B8%96%E7%95%8C</t>
@@ -3119,43 +3056,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%9B%9B%E5%A4%A7%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲四大經濟體</t>
+    <t>欧洲四大经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E4%BA%94%E5%9C%8B</t>
   </si>
   <si>
-    <t>北歐五國</t>
+    <t>北欧五国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -3173,7 +3104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -3185,7 +3116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
@@ -3203,19 +3134,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -3245,7 +3176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -3275,13 +3206,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -3305,7 +3236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -3329,7 +3260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
@@ -3341,25 +3272,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%83%E7%99%BC%E9%81%94%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>較發達國家</t>
+    <t>较发达国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6%E6%88%96%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>已開發國家或地區</t>
+    <t>已开发国家或地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9B%9B%E5%B0%8F%E9%BE%99</t>
@@ -3383,7 +3311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96%E5%9B%BD%E5%AE%B6</t>
@@ -3395,7 +3323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>八大工業國組織</t>
+    <t>八大工业国组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
@@ -3413,7 +3341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>西歐聯盟</t>
+    <t>西欧联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -3437,15 +3365,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%9B%E5%9B%BD</t>
   </si>
   <si>
@@ -3479,13 +3401,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
@@ -3503,57 +3422,45 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2</t>
   </si>
   <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
   </si>
   <si>
@@ -3563,7 +3470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%95%97%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>失敗國家</t>
+    <t>失败国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%86%E5%BC%B1%E5%9B%BD%E5%AE%B6%E6%8C%87%E6%95%B0</t>
@@ -3611,7 +3518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
@@ -3647,7 +3554,7 @@
     <t>https://zh.wikipedia.org/wiki/20%E5%9C%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>20國集團</t>
+    <t>20国集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%8D%81%E4%B8%83%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
@@ -3659,13 +3566,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
   </si>
   <si>
-    <t>人类发展指数</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%94%BF%E6%8D%AE%E7%82%B9</t>
@@ -3677,19 +3581,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E%E8%A1%9D%E7%AA%81%E8%AB%96</t>
   </si>
   <si>
-    <t>文明衝突論</t>
+    <t>文明冲突论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3713,7 +3617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3725,13 +3629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -6196,7 +6100,7 @@
         <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -6222,10 +6126,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>7</v>
@@ -6251,10 +6155,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>14</v>
@@ -6280,10 +6184,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
         <v>143</v>
-      </c>
-      <c r="F76" t="s">
-        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>41</v>
@@ -6309,10 +6213,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
         <v>145</v>
-      </c>
-      <c r="F77" t="s">
-        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>8</v>
@@ -6338,10 +6242,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
         <v>147</v>
-      </c>
-      <c r="F78" t="s">
-        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -6367,10 +6271,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>15</v>
@@ -6396,10 +6300,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>12</v>
@@ -6425,10 +6329,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -6454,10 +6358,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -6483,10 +6387,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -6512,10 +6416,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -6541,10 +6445,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -6570,10 +6474,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="G86" t="n">
         <v>7</v>
@@ -6599,10 +6503,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>7</v>
@@ -6628,10 +6532,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="G88" t="n">
         <v>7</v>
@@ -6657,10 +6561,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -6686,10 +6590,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -6715,10 +6619,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6744,10 +6648,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -6773,10 +6677,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6802,10 +6706,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6831,10 +6735,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -6860,10 +6764,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -6889,10 +6793,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6918,10 +6822,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6947,10 +6851,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -6976,10 +6880,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -7005,10 +6909,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -7034,10 +6938,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -7063,10 +6967,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -7092,10 +6996,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -7121,10 +7025,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -7150,10 +7054,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -7179,10 +7083,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -7208,10 +7112,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -7237,10 +7141,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -7266,10 +7170,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -7295,10 +7199,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7324,10 +7228,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7353,10 +7257,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7382,10 +7286,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>9</v>
@@ -7411,10 +7315,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>11</v>
@@ -7440,10 +7344,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7469,10 +7373,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -7498,10 +7402,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7527,10 +7431,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7556,10 +7460,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7585,10 +7489,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -7614,10 +7518,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -7643,10 +7547,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -7672,10 +7576,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7701,10 +7605,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7730,10 +7634,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7759,10 +7663,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7788,10 +7692,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7817,10 +7721,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -7846,10 +7750,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -7875,10 +7779,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7904,10 +7808,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -7933,10 +7837,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7962,10 +7866,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -7991,10 +7895,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -8020,10 +7924,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8049,10 +7953,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -8078,10 +7982,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8107,10 +8011,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8136,10 +8040,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8165,10 +8069,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>5</v>
@@ -8194,10 +8098,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8223,10 +8127,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -8252,10 +8156,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8281,10 +8185,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -8310,10 +8214,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -8339,10 +8243,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -8368,10 +8272,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8397,10 +8301,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8426,10 +8330,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8455,10 +8359,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>18</v>
@@ -8484,10 +8388,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>7</v>
@@ -8513,10 +8417,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -8542,10 +8446,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8571,10 +8475,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8600,10 +8504,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8629,10 +8533,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8658,10 +8562,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8687,10 +8591,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -8716,10 +8620,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -8745,10 +8649,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -8774,10 +8678,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8803,10 +8707,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -8832,10 +8736,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>150</v>
+      </c>
+      <c r="F164" t="s">
         <v>151</v>
-      </c>
-      <c r="F164" t="s">
-        <v>152</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8861,10 +8765,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8890,10 +8794,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>4</v>
@@ -8919,10 +8823,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -8948,10 +8852,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -8977,10 +8881,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -9006,10 +8910,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -9035,10 +8939,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -9064,10 +8968,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -9093,10 +8997,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -9122,10 +9026,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -9151,10 +9055,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -9180,10 +9084,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -9209,10 +9113,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -9238,10 +9142,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9267,10 +9171,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9296,10 +9200,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -9325,10 +9229,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -9354,10 +9258,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9383,10 +9287,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9412,10 +9316,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -9441,10 +9345,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9470,10 +9374,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9528,10 +9432,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>4</v>
@@ -9586,10 +9490,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9615,10 +9519,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9644,10 +9548,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9673,10 +9577,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9705,7 +9609,7 @@
         <v>137</v>
       </c>
       <c r="F194" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9760,10 +9664,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9789,10 +9693,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9818,10 +9722,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9847,10 +9751,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9876,10 +9780,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G200" t="n">
         <v>4</v>
@@ -9905,10 +9809,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -9934,10 +9838,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9963,10 +9867,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9992,10 +9896,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -10021,10 +9925,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -10050,10 +9954,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -10079,10 +9983,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10108,10 +10012,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -10137,10 +10041,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10166,10 +10070,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>150</v>
+      </c>
+      <c r="F210" t="s">
         <v>151</v>
-      </c>
-      <c r="F210" t="s">
-        <v>152</v>
       </c>
       <c r="G210" t="n">
         <v>8</v>
@@ -10195,10 +10099,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10224,10 +10128,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -10253,10 +10157,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10282,10 +10186,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10311,10 +10215,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10340,10 +10244,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10369,10 +10273,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -10398,10 +10302,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -10427,10 +10331,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10456,10 +10360,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10485,10 +10389,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10514,10 +10418,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>106</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -10543,10 +10447,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>108</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10572,10 +10476,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10601,10 +10505,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G225" t="n">
         <v>4</v>
@@ -10630,10 +10534,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -10659,10 +10563,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -10688,10 +10592,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10717,10 +10621,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10746,10 +10650,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10775,10 +10679,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10804,10 +10708,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10833,10 +10737,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10862,10 +10766,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10891,10 +10795,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10920,10 +10824,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10949,10 +10853,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10978,10 +10882,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -11007,10 +10911,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -11036,10 +10940,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -11065,10 +10969,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -11094,10 +10998,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -11123,10 +11027,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G243" t="n">
         <v>4</v>
@@ -11152,10 +11056,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F244" t="s">
-        <v>468</v>
+        <v>241</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11181,10 +11085,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11210,10 +11114,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F246" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11239,10 +11143,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F247" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11268,10 +11172,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F248" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11297,10 +11201,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F249" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11326,10 +11230,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F250" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11355,10 +11259,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F251" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11384,10 +11288,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F252" t="s">
-        <v>484</v>
+        <v>58</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11413,10 +11317,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F253" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11442,10 +11346,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F254" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11471,10 +11375,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11500,10 +11404,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11558,10 +11462,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11587,10 +11491,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11616,10 +11520,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11645,10 +11549,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11674,10 +11578,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11703,10 +11607,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11732,10 +11636,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11761,10 +11665,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -11790,10 +11694,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11819,10 +11723,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11848,10 +11752,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11877,10 +11781,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11906,10 +11810,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="G270" t="n">
         <v>4</v>
@@ -11935,10 +11839,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11964,10 +11868,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11993,10 +11897,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -12022,10 +11926,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -12051,10 +11955,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -12080,10 +11984,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -12109,10 +12013,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12138,10 +12042,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12167,10 +12071,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12196,10 +12100,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -12225,10 +12129,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12254,10 +12158,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="G282" t="n">
         <v>13</v>
@@ -12283,10 +12187,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="G283" t="n">
         <v>18</v>
@@ -12312,10 +12216,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12341,10 +12245,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -12370,10 +12274,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -12399,10 +12303,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -12428,10 +12332,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -12457,10 +12361,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -12486,10 +12390,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12515,10 +12419,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -12544,10 +12448,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -12573,10 +12477,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -12602,10 +12506,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -12631,10 +12535,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -12660,10 +12564,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G296" t="n">
         <v>4</v>
@@ -12689,10 +12593,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -12718,10 +12622,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
@@ -12747,10 +12651,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -12776,10 +12680,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G300" t="n">
         <v>4</v>
@@ -12805,10 +12709,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -12834,10 +12738,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12863,10 +12767,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -12892,10 +12796,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G304" t="n">
         <v>3</v>
@@ -12921,10 +12825,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -12950,10 +12854,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12979,10 +12883,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G307" t="n">
         <v>3</v>
@@ -13008,10 +12912,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G308" t="n">
         <v>5</v>
@@ -13037,10 +12941,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G309" t="n">
         <v>4</v>
@@ -13066,10 +12970,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G310" t="n">
         <v>4</v>
@@ -13095,10 +12999,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G311" t="n">
         <v>4</v>
@@ -13124,10 +13028,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="G312" t="n">
         <v>4</v>
@@ -13153,10 +13057,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="G313" t="n">
         <v>9</v>
@@ -13182,10 +13086,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -13211,10 +13115,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="G315" t="n">
         <v>5</v>
@@ -13240,10 +13144,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
@@ -13269,10 +13173,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13298,10 +13202,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13327,10 +13231,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13356,10 +13260,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G320" t="n">
         <v>3</v>
@@ -13385,10 +13289,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13414,10 +13318,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G322" t="n">
         <v>3</v>
@@ -13443,10 +13347,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -13472,10 +13376,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G324" t="n">
         <v>3</v>
@@ -13501,10 +13405,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="G325" t="n">
         <v>3</v>
@@ -13530,10 +13434,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="G326" t="n">
         <v>5</v>
@@ -13559,10 +13463,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -13588,10 +13492,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -13617,10 +13521,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="G329" t="n">
         <v>3</v>
@@ -13646,10 +13550,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="G330" t="n">
         <v>3</v>
@@ -13675,10 +13579,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -13704,10 +13608,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G332" t="n">
         <v>4</v>
@@ -13733,10 +13637,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="G333" t="n">
         <v>3</v>
@@ -13762,10 +13666,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F334" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13791,10 +13695,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F335" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13820,10 +13724,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F336" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G336" t="n">
         <v>3</v>
@@ -13849,10 +13753,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="F337" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13878,10 +13782,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F338" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13907,10 +13811,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F339" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13936,10 +13840,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F340" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13965,10 +13869,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="F341" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13994,10 +13898,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F342" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="G342" t="n">
         <v>3</v>
@@ -14023,10 +13927,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F343" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="G343" t="n">
         <v>3</v>
@@ -14052,10 +13956,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F344" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14081,10 +13985,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F345" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14110,10 +14014,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="F346" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -14139,10 +14043,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="F347" t="s">
-        <v>672</v>
+        <v>533</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14168,10 +14072,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F348" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14197,10 +14101,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="F349" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14226,10 +14130,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="F350" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -14255,10 +14159,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14284,10 +14188,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
         <v>4</v>
@@ -14313,10 +14217,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>684</v>
+        <v>639</v>
       </c>
       <c r="G353" t="n">
         <v>4</v>
@@ -14342,10 +14246,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="F354" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -14371,10 +14275,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F355" t="s">
-        <v>688</v>
+        <v>579</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -14400,10 +14304,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="F356" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14429,10 +14333,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F357" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -14458,10 +14362,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="F358" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14487,10 +14391,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="F359" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14516,10 +14420,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="F360" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14545,10 +14449,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="F361" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14574,10 +14478,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="F362" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -14603,10 +14507,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="F363" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="G363" t="n">
         <v>3</v>
@@ -14632,10 +14536,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="F364" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -14661,10 +14565,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="F365" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -14690,10 +14594,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="F366" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14719,10 +14623,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="F367" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14748,10 +14652,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="F368" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="G368" t="n">
         <v>3</v>
@@ -14777,10 +14681,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="F369" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -14806,10 +14710,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F370" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -14835,10 +14739,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="F371" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14864,10 +14768,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F372" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -14893,10 +14797,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="F373" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -14922,10 +14826,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="F374" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="G374" t="n">
         <v>3</v>
@@ -14951,10 +14855,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="F375" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -14980,10 +14884,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="F376" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15009,10 +14913,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="F377" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -15038,10 +14942,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="F378" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -15067,10 +14971,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="F379" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -15096,10 +15000,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="F380" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15125,10 +15029,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="F381" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -15154,10 +15058,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="F382" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="G382" t="n">
         <v>4</v>
@@ -15183,10 +15087,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="F383" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -15212,10 +15116,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="F384" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15241,10 +15145,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="F385" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15270,10 +15174,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="F386" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="G386" t="n">
         <v>3</v>
@@ -15299,10 +15203,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="F387" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -15328,10 +15232,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="F388" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -15357,10 +15261,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="F389" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="G389" t="n">
         <v>2</v>
@@ -15386,10 +15290,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="F390" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15415,10 +15319,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="F391" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -15444,10 +15348,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="F392" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15473,10 +15377,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="F393" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -15502,10 +15406,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="F394" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="G394" t="n">
         <v>4</v>
@@ -15531,10 +15435,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="F395" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -15560,10 +15464,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="F396" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="G396" t="n">
         <v>3</v>
@@ -15589,10 +15493,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="F397" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -15618,10 +15522,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="F398" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="G398" t="n">
         <v>4</v>
@@ -15647,10 +15551,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="F399" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15676,10 +15580,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="F400" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -15705,10 +15609,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="F401" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15734,10 +15638,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="F402" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="G402" t="n">
         <v>3</v>
@@ -15763,10 +15667,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="F403" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -15792,10 +15696,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="F404" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -15821,13 +15725,13 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="F405" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="G405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H405" t="s">
         <v>4</v>
@@ -15850,10 +15754,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="F406" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15879,10 +15783,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="F407" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15908,10 +15812,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F408" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15937,10 +15841,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="F409" t="s">
-        <v>792</v>
+        <v>649</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15966,10 +15870,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="F410" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15995,10 +15899,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="F411" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16024,10 +15928,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="F412" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16053,10 +15957,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="F413" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16082,10 +15986,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F414" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16111,10 +16015,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="F415" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16140,10 +16044,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="F416" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16169,10 +16073,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="F417" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16198,10 +16102,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="F418" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16227,10 +16131,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16256,10 +16160,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16285,10 +16189,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>645</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16314,10 +16218,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16343,10 +16247,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="F423" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16372,10 +16276,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="F424" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16401,10 +16305,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F425" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16430,10 +16334,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="F426" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16459,10 +16363,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="F427" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16488,10 +16392,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="F428" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16517,10 +16421,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="F429" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16546,10 +16450,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="F430" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16575,10 +16479,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="F431" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16604,10 +16508,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="F432" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16633,10 +16537,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="F433" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16662,10 +16566,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="F434" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16691,10 +16595,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="F435" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16720,10 +16624,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="F436" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -16749,10 +16653,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="F437" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="G437" t="n">
         <v>3</v>
@@ -16778,10 +16682,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="F438" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -16807,10 +16711,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="F439" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="G439" t="n">
         <v>3</v>
@@ -16836,10 +16740,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="F440" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="G440" t="n">
         <v>3</v>
@@ -16865,10 +16769,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="F441" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16894,10 +16798,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="F442" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="G442" t="n">
         <v>3</v>
@@ -16923,10 +16827,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="F443" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -16952,10 +16856,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="F444" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -16981,10 +16885,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="F445" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="G445" t="n">
         <v>3</v>
@@ -17010,10 +16914,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="F446" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="G446" t="n">
         <v>10</v>
@@ -17039,10 +16943,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="F447" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="G447" t="n">
         <v>3</v>
@@ -17068,10 +16972,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="F448" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -17097,10 +17001,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="F449" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -17126,10 +17030,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="F450" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="G450" t="n">
         <v>3</v>
@@ -17155,10 +17059,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="F451" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="G451" t="n">
         <v>4</v>
@@ -17184,10 +17088,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="F452" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="G452" t="n">
         <v>3</v>
@@ -17213,10 +17117,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="F453" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="G453" t="n">
         <v>3</v>
@@ -17271,10 +17175,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="F455" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="G455" t="n">
         <v>3</v>
@@ -17300,10 +17204,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="F456" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="G456" t="n">
         <v>2</v>
@@ -17329,10 +17233,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="F457" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="G457" t="n">
         <v>4</v>
@@ -17358,10 +17262,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="F458" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="G458" t="n">
         <v>2</v>
@@ -17387,10 +17291,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="F459" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="G459" t="n">
         <v>2</v>
@@ -17416,10 +17320,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="F460" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="G460" t="n">
         <v>3</v>
@@ -17445,10 +17349,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="F461" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -17474,10 +17378,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="F462" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17503,10 +17407,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F463" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17532,10 +17436,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="F464" t="s">
-        <v>898</v>
+        <v>553</v>
       </c>
       <c r="G464" t="n">
         <v>2</v>
@@ -17561,10 +17465,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="F465" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17590,10 +17494,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="F466" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17619,10 +17523,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="F467" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17648,10 +17552,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
       <c r="F468" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -17677,10 +17581,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="F469" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="G469" t="n">
         <v>3</v>
@@ -17706,10 +17610,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="F470" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17735,10 +17639,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="F471" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17764,10 +17668,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="F472" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -17793,10 +17697,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="F473" t="s">
-        <v>916</v>
+        <v>673</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17822,10 +17726,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="F474" t="s">
-        <v>918</v>
+        <v>696</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17851,10 +17755,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="F475" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17880,10 +17784,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="F476" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17909,10 +17813,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="F477" t="s">
-        <v>924</v>
+        <v>565</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17938,10 +17842,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="F478" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17967,10 +17871,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="F479" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17996,10 +17900,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="F480" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18025,10 +17929,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
       <c r="F481" t="s">
-        <v>932</v>
+        <v>880</v>
       </c>
       <c r="G481" t="n">
         <v>4</v>
@@ -18054,10 +17958,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="F482" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="G482" t="n">
         <v>2</v>
@@ -18083,10 +17987,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="F483" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -18112,10 +18016,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="F484" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18141,10 +18045,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="F485" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18170,10 +18074,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="F486" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="G486" t="n">
         <v>3</v>
@@ -18199,10 +18103,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="F487" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18228,10 +18132,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="F488" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18257,10 +18161,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="F489" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="G489" t="n">
         <v>2</v>
@@ -18286,10 +18190,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="F490" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -18315,10 +18219,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="F491" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18344,10 +18248,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="F492" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18373,10 +18277,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="F493" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18402,10 +18306,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="F494" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -18431,10 +18335,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="F495" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18460,10 +18364,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="F496" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18489,10 +18393,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="F497" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18518,10 +18422,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
       <c r="F498" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18547,10 +18451,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="F499" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18576,10 +18480,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="F500" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18605,10 +18509,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="F501" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18634,10 +18538,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="F502" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18663,10 +18567,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="F503" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18692,10 +18596,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F504" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18721,10 +18625,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F505" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18750,10 +18654,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
       <c r="F506" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18779,10 +18683,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="F507" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18808,10 +18712,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="F508" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="G508" t="n">
         <v>2</v>
@@ -18837,10 +18741,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="F509" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="G509" t="n">
         <v>4</v>
@@ -18866,10 +18770,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="F510" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18895,10 +18799,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="F511" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="G511" t="n">
         <v>2</v>
@@ -18924,10 +18828,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="F512" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18953,10 +18857,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>987</v>
+        <v>966</v>
       </c>
       <c r="F513" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="G513" t="n">
         <v>2</v>
@@ -18982,10 +18886,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="F514" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19011,10 +18915,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
       <c r="F515" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19040,10 +18944,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
       <c r="F516" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19069,10 +18973,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="F517" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19098,10 +19002,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="F518" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19127,10 +19031,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="F519" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="G519" t="n">
         <v>2</v>
@@ -19156,10 +19060,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="F520" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19185,10 +19089,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="F521" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="G521" t="n">
         <v>2</v>
@@ -19214,10 +19118,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
       <c r="F522" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="G522" t="n">
         <v>6</v>
@@ -19243,10 +19147,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1001</v>
+        <v>980</v>
       </c>
       <c r="F523" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19272,10 +19176,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="F524" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
       <c r="G524" t="n">
         <v>2</v>
@@ -19301,10 +19205,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="F525" t="s">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19330,10 +19234,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="F526" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19359,10 +19263,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="F527" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19388,10 +19292,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
       <c r="F528" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -19417,10 +19321,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="F529" t="s">
-        <v>1014</v>
+        <v>993</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19446,10 +19350,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="F530" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="G530" t="n">
         <v>2</v>
@@ -19475,10 +19379,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="F531" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19504,10 +19408,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
       <c r="F532" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="G532" t="n">
         <v>2</v>
@@ -19533,10 +19437,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
       <c r="F533" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19562,10 +19466,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="F534" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19591,10 +19495,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="F535" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19620,10 +19524,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="F536" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19649,10 +19553,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
       <c r="F537" t="s">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19678,10 +19582,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="F538" t="s">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19707,10 +19611,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="F539" t="s">
-        <v>1034</v>
+        <v>991</v>
       </c>
       <c r="G539" t="n">
         <v>12</v>
@@ -19736,13 +19640,13 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="F540" t="s">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="G540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H540" t="s">
         <v>4</v>
@@ -19765,10 +19669,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="F541" t="s">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19794,10 +19698,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="F542" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19823,10 +19727,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="F543" t="s">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19852,10 +19756,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F544" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G544" t="n">
         <v>5</v>
@@ -19881,10 +19785,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="F545" t="s">
-        <v>1042</v>
+        <v>257</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19910,10 +19814,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1043</v>
+        <v>1020</v>
       </c>
       <c r="F546" t="s">
-        <v>1044</v>
+        <v>1021</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19939,10 +19843,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1045</v>
+        <v>1022</v>
       </c>
       <c r="F547" t="s">
-        <v>1046</v>
+        <v>1023</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19968,10 +19872,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
       <c r="F548" t="s">
-        <v>1048</v>
+        <v>1025</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19997,10 +19901,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1049</v>
+        <v>1026</v>
       </c>
       <c r="F549" t="s">
-        <v>1050</v>
+        <v>1027</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20026,10 +19930,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1051</v>
+        <v>1028</v>
       </c>
       <c r="F550" t="s">
-        <v>1052</v>
+        <v>1029</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20055,10 +19959,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
       <c r="F551" t="s">
-        <v>1054</v>
+        <v>1031</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20084,10 +19988,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1055</v>
+        <v>1032</v>
       </c>
       <c r="F552" t="s">
-        <v>1056</v>
+        <v>1033</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20113,10 +20017,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1057</v>
+        <v>1034</v>
       </c>
       <c r="F553" t="s">
-        <v>1058</v>
+        <v>1035</v>
       </c>
       <c r="G553" t="n">
         <v>2</v>
@@ -20142,10 +20046,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
       <c r="F554" t="s">
-        <v>1060</v>
+        <v>1037</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20171,10 +20075,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
       <c r="F555" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20200,10 +20104,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
       <c r="F556" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20229,10 +20133,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="F557" t="s">
-        <v>1066</v>
+        <v>1043</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20258,10 +20162,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1067</v>
+        <v>1044</v>
       </c>
       <c r="F558" t="s">
-        <v>1068</v>
+        <v>1045</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20287,10 +20191,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1069</v>
+        <v>1046</v>
       </c>
       <c r="F559" t="s">
-        <v>1070</v>
+        <v>1047</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20316,10 +20220,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1071</v>
+        <v>1048</v>
       </c>
       <c r="F560" t="s">
-        <v>1072</v>
+        <v>1049</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20345,10 +20249,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1073</v>
+        <v>1050</v>
       </c>
       <c r="F561" t="s">
-        <v>1074</v>
+        <v>1051</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20374,10 +20278,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1075</v>
+        <v>1052</v>
       </c>
       <c r="F562" t="s">
-        <v>1076</v>
+        <v>1053</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20403,10 +20307,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1077</v>
+        <v>1054</v>
       </c>
       <c r="F563" t="s">
-        <v>1078</v>
+        <v>1055</v>
       </c>
       <c r="G563" t="n">
         <v>2</v>
@@ -20432,10 +20336,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1079</v>
+        <v>1056</v>
       </c>
       <c r="F564" t="s">
-        <v>1080</v>
+        <v>1057</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20461,10 +20365,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1081</v>
+        <v>1058</v>
       </c>
       <c r="F565" t="s">
-        <v>1082</v>
+        <v>1059</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20490,10 +20394,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1083</v>
+        <v>1060</v>
       </c>
       <c r="F566" t="s">
-        <v>1084</v>
+        <v>1061</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20519,10 +20423,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1085</v>
+        <v>1062</v>
       </c>
       <c r="F567" t="s">
-        <v>1086</v>
+        <v>1063</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20548,10 +20452,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1087</v>
+        <v>1064</v>
       </c>
       <c r="F568" t="s">
-        <v>1088</v>
+        <v>1065</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20577,10 +20481,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1089</v>
+        <v>1066</v>
       </c>
       <c r="F569" t="s">
-        <v>1090</v>
+        <v>1067</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20606,10 +20510,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1091</v>
+        <v>1068</v>
       </c>
       <c r="F570" t="s">
-        <v>1092</v>
+        <v>1069</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20635,10 +20539,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1093</v>
+        <v>1070</v>
       </c>
       <c r="F571" t="s">
-        <v>1094</v>
+        <v>1071</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20664,10 +20568,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1095</v>
+        <v>1072</v>
       </c>
       <c r="F572" t="s">
-        <v>1096</v>
+        <v>1073</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20693,10 +20597,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1097</v>
+        <v>1074</v>
       </c>
       <c r="F573" t="s">
-        <v>1098</v>
+        <v>1075</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20722,10 +20626,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1099</v>
+        <v>1076</v>
       </c>
       <c r="F574" t="s">
-        <v>1100</v>
+        <v>1077</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20751,10 +20655,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1101</v>
+        <v>1078</v>
       </c>
       <c r="F575" t="s">
-        <v>1102</v>
+        <v>1079</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20780,10 +20684,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1103</v>
+        <v>1080</v>
       </c>
       <c r="F576" t="s">
-        <v>1104</v>
+        <v>1081</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20809,10 +20713,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1105</v>
+        <v>1082</v>
       </c>
       <c r="F577" t="s">
-        <v>1106</v>
+        <v>1083</v>
       </c>
       <c r="G577" t="n">
         <v>2</v>
@@ -20838,10 +20742,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1107</v>
+        <v>1084</v>
       </c>
       <c r="F578" t="s">
-        <v>1108</v>
+        <v>732</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20867,10 +20771,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="F579" t="s">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20896,10 +20800,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1109</v>
+        <v>1085</v>
       </c>
       <c r="F580" t="s">
-        <v>1110</v>
+        <v>1086</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20925,10 +20829,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1111</v>
+        <v>1087</v>
       </c>
       <c r="F581" t="s">
-        <v>1112</v>
+        <v>1088</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20954,10 +20858,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1113</v>
+        <v>1089</v>
       </c>
       <c r="F582" t="s">
-        <v>1114</v>
+        <v>1090</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20983,10 +20887,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1115</v>
+        <v>1091</v>
       </c>
       <c r="F583" t="s">
-        <v>1116</v>
+        <v>1092</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21012,10 +20916,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1117</v>
+        <v>1093</v>
       </c>
       <c r="F584" t="s">
-        <v>1118</v>
+        <v>1094</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21041,10 +20945,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1119</v>
+        <v>1095</v>
       </c>
       <c r="F585" t="s">
-        <v>1120</v>
+        <v>1096</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21070,10 +20974,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1121</v>
+        <v>1097</v>
       </c>
       <c r="F586" t="s">
-        <v>1122</v>
+        <v>1098</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21099,10 +21003,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1123</v>
+        <v>1099</v>
       </c>
       <c r="F587" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="G587" t="n">
         <v>3</v>
@@ -21128,10 +21032,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
       <c r="F588" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21157,10 +21061,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
       <c r="F589" t="s">
-        <v>1128</v>
+        <v>1104</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21186,10 +21090,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1129</v>
+        <v>1105</v>
       </c>
       <c r="F590" t="s">
-        <v>1130</v>
+        <v>1106</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21215,10 +21119,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1131</v>
+        <v>1107</v>
       </c>
       <c r="F591" t="s">
-        <v>1132</v>
+        <v>1108</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21244,10 +21148,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1133</v>
+        <v>1109</v>
       </c>
       <c r="F592" t="s">
-        <v>1134</v>
+        <v>1110</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21273,10 +21177,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F593" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21302,10 +21206,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1135</v>
+        <v>1111</v>
       </c>
       <c r="F594" t="s">
-        <v>1136</v>
+        <v>1112</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21331,13 +21235,13 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F595" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H595" t="s">
         <v>4</v>
@@ -21360,10 +21264,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1137</v>
+        <v>1113</v>
       </c>
       <c r="F596" t="s">
-        <v>1138</v>
+        <v>1114</v>
       </c>
       <c r="G596" t="n">
         <v>2</v>
@@ -21389,10 +21293,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1139</v>
+        <v>1115</v>
       </c>
       <c r="F597" t="s">
-        <v>1140</v>
+        <v>949</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21418,10 +21322,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1141</v>
+        <v>1116</v>
       </c>
       <c r="F598" t="s">
-        <v>1142</v>
+        <v>563</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21447,10 +21351,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1143</v>
+        <v>1117</v>
       </c>
       <c r="F599" t="s">
-        <v>1144</v>
+        <v>1118</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21476,10 +21380,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1145</v>
+        <v>1119</v>
       </c>
       <c r="F600" t="s">
-        <v>1146</v>
+        <v>1120</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21505,10 +21409,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1147</v>
+        <v>1121</v>
       </c>
       <c r="F601" t="s">
-        <v>1148</v>
+        <v>1122</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21534,10 +21438,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1149</v>
+        <v>1123</v>
       </c>
       <c r="F602" t="s">
-        <v>1150</v>
+        <v>1124</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21563,10 +21467,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1151</v>
+        <v>1125</v>
       </c>
       <c r="F603" t="s">
-        <v>1152</v>
+        <v>1126</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21592,10 +21496,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1153</v>
+        <v>1127</v>
       </c>
       <c r="F604" t="s">
-        <v>1154</v>
+        <v>561</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21621,10 +21525,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1155</v>
+        <v>1128</v>
       </c>
       <c r="F605" t="s">
-        <v>1156</v>
+        <v>1129</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21650,13 +21554,13 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1157</v>
+        <v>1130</v>
       </c>
       <c r="F606" t="s">
-        <v>1158</v>
+        <v>1131</v>
       </c>
       <c r="G606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H606" t="s">
         <v>4</v>
@@ -21679,10 +21583,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1159</v>
+        <v>1132</v>
       </c>
       <c r="F607" t="s">
-        <v>1160</v>
+        <v>1133</v>
       </c>
       <c r="G607" t="n">
         <v>3</v>
@@ -21708,10 +21612,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1161</v>
+        <v>1134</v>
       </c>
       <c r="F608" t="s">
-        <v>1162</v>
+        <v>1135</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21737,10 +21641,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1163</v>
+        <v>1136</v>
       </c>
       <c r="F609" t="s">
-        <v>1164</v>
+        <v>921</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21766,10 +21670,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1165</v>
+        <v>1137</v>
       </c>
       <c r="F610" t="s">
-        <v>1166</v>
+        <v>1138</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21795,10 +21699,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1167</v>
+        <v>1139</v>
       </c>
       <c r="F611" t="s">
-        <v>1168</v>
+        <v>1140</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21824,10 +21728,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1169</v>
+        <v>1141</v>
       </c>
       <c r="F612" t="s">
-        <v>1170</v>
+        <v>1142</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21853,10 +21757,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1171</v>
+        <v>1143</v>
       </c>
       <c r="F613" t="s">
-        <v>1172</v>
+        <v>951</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21882,10 +21786,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1173</v>
+        <v>1144</v>
       </c>
       <c r="F614" t="s">
-        <v>1174</v>
+        <v>1145</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21911,10 +21815,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1175</v>
+        <v>1146</v>
       </c>
       <c r="F615" t="s">
-        <v>1176</v>
+        <v>768</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21940,10 +21844,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1177</v>
+        <v>1147</v>
       </c>
       <c r="F616" t="s">
-        <v>1178</v>
+        <v>764</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -21969,10 +21873,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1179</v>
+        <v>1148</v>
       </c>
       <c r="F617" t="s">
-        <v>1180</v>
+        <v>1149</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21998,10 +21902,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1181</v>
+        <v>1150</v>
       </c>
       <c r="F618" t="s">
-        <v>1182</v>
+        <v>1151</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22027,10 +21931,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1183</v>
+        <v>1152</v>
       </c>
       <c r="F619" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22056,10 +21960,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1185</v>
+        <v>1154</v>
       </c>
       <c r="F620" t="s">
-        <v>1186</v>
+        <v>1155</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22085,10 +21989,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1187</v>
+        <v>1156</v>
       </c>
       <c r="F621" t="s">
-        <v>1188</v>
+        <v>1157</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22114,10 +22018,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1189</v>
+        <v>1158</v>
       </c>
       <c r="F622" t="s">
-        <v>1190</v>
+        <v>1159</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22143,10 +22047,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1191</v>
+        <v>1160</v>
       </c>
       <c r="F623" t="s">
-        <v>1192</v>
+        <v>1161</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22172,10 +22076,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1193</v>
+        <v>1162</v>
       </c>
       <c r="F624" t="s">
-        <v>1194</v>
+        <v>1163</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22201,10 +22105,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1195</v>
+        <v>1164</v>
       </c>
       <c r="F625" t="s">
-        <v>1196</v>
+        <v>1165</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22230,10 +22134,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1197</v>
+        <v>1166</v>
       </c>
       <c r="F626" t="s">
-        <v>1198</v>
+        <v>1167</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22259,10 +22163,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1199</v>
+        <v>1168</v>
       </c>
       <c r="F627" t="s">
-        <v>1200</v>
+        <v>1169</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22288,10 +22192,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1201</v>
+        <v>1170</v>
       </c>
       <c r="F628" t="s">
-        <v>1202</v>
+        <v>1171</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22317,10 +22221,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1203</v>
+        <v>1172</v>
       </c>
       <c r="F629" t="s">
-        <v>1204</v>
+        <v>1173</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22346,10 +22250,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1205</v>
+        <v>1174</v>
       </c>
       <c r="F630" t="s">
-        <v>1206</v>
+        <v>1175</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22375,10 +22279,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1207</v>
+        <v>1176</v>
       </c>
       <c r="F631" t="s">
-        <v>1208</v>
+        <v>1177</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22404,10 +22308,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1209</v>
+        <v>1178</v>
       </c>
       <c r="F632" t="s">
-        <v>1210</v>
+        <v>1179</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22433,10 +22337,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1211</v>
+        <v>1180</v>
       </c>
       <c r="F633" t="s">
-        <v>1212</v>
+        <v>1181</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22462,10 +22366,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1213</v>
+        <v>1182</v>
       </c>
       <c r="F634" t="s">
-        <v>1214</v>
+        <v>114</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22491,10 +22395,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1215</v>
+        <v>1183</v>
       </c>
       <c r="F635" t="s">
-        <v>1216</v>
+        <v>1184</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22520,10 +22424,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1183</v>
+        <v>1152</v>
       </c>
       <c r="F636" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22549,10 +22453,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1217</v>
+        <v>1185</v>
       </c>
       <c r="F637" t="s">
-        <v>1218</v>
+        <v>1186</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22578,10 +22482,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1219</v>
+        <v>1187</v>
       </c>
       <c r="F638" t="s">
-        <v>1220</v>
+        <v>1188</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22607,10 +22511,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1221</v>
+        <v>1189</v>
       </c>
       <c r="F639" t="s">
-        <v>1222</v>
+        <v>1190</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22636,10 +22540,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1223</v>
+        <v>1191</v>
       </c>
       <c r="F640" t="s">
-        <v>1224</v>
+        <v>1192</v>
       </c>
       <c r="G640" t="n">
         <v>3</v>
@@ -22665,10 +22569,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1225</v>
+        <v>1193</v>
       </c>
       <c r="F641" t="s">
-        <v>1226</v>
+        <v>1194</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22694,10 +22598,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1227</v>
+        <v>1195</v>
       </c>
       <c r="F642" t="s">
-        <v>1228</v>
+        <v>1196</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22723,10 +22627,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1229</v>
+        <v>1197</v>
       </c>
       <c r="F643" t="s">
-        <v>1230</v>
+        <v>1198</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22752,10 +22656,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1231</v>
+        <v>1199</v>
       </c>
       <c r="F644" t="s">
-        <v>1232</v>
+        <v>1200</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22781,10 +22685,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1233</v>
+        <v>1201</v>
       </c>
       <c r="F645" t="s">
-        <v>1234</v>
+        <v>1202</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22810,10 +22714,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1235</v>
+        <v>1203</v>
       </c>
       <c r="F646" t="s">
-        <v>1236</v>
+        <v>1204</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22839,10 +22743,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1237</v>
+        <v>1205</v>
       </c>
       <c r="F647" t="s">
-        <v>1238</v>
+        <v>1206</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22868,10 +22772,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1239</v>
+        <v>1207</v>
       </c>
       <c r="F648" t="s">
-        <v>1240</v>
+        <v>1208</v>
       </c>
       <c r="G648" t="n">
         <v>3</v>

--- a/xlsx/巴基斯坦_intext.xlsx
+++ b/xlsx/巴基斯坦_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1019">
   <si>
     <t>巴基斯坦</t>
   </si>
@@ -23,15 +23,21 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
+  </si>
+  <si>
+    <t>地理坐标</t>
+  </si>
+  <si>
+    <t>体育运动_体育运动_伊朗_巴基斯坦</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
     <t>巴勒斯坦</t>
   </si>
   <si>
-    <t>政策_政策_美國_巴基斯坦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E5%9B%BD%E6%97%97</t>
   </si>
   <si>
@@ -3020,672 +3026,6 @@
     <t>伊斯兰共和国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%AA%E4%B8%96%E7%95%8C%E7%90%86%E8%AE%BA_(%E6%AF%9B%E6%B3%BD%E4%B8%9C)</t>
-  </si>
-  <si>
-    <t>三个世界理论 (毛泽东)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%B3%BD%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>毛泽东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%93%E5%B0%8F%E5%B9%B3</t>
-  </si>
-  <si>
-    <t>邓小平</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>第一世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%BA%A7%E5%A4%A7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>超级大国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>美帝國主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
-  </si>
-  <si>
-    <t>苏联</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会帝国主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>帝国主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%B8%E6%9D%83%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>霸权主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%BA%E6%9D%83%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>强权政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E9%82%8A%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>單邊主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%98%B6%E6%AE%B5%E5%89%8A%E5%87%8F%E6%88%98%E7%95%A5%E6%AD%A6%E5%99%A8%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>第一阶段削减战略武器条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88%E6%A2%9D%E7%B4%84</t>
-  </si>
-  <si>
-    <t>反彈道飛彈條約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>第二世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>已開發國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%9B%9B%E5%A4%A7%E7%B6%93%E6%BF%9F%E9%AB%94</t>
-  </si>
-  <si>
-    <t>歐洲四大經濟體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E4%BA%94%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>北歐五國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
-  </si>
-  <si>
-    <t>丹麥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>冰島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>西欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>愛爾蘭共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
-  </si>
-  <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
-  </si>
-  <si>
-    <t>比利時</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩納哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
-  </si>
-  <si>
-    <t>希臘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
-  </si>
-  <si>
-    <t>移民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新西蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BC%83%E7%99%BC%E9%81%94%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>較發達國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>新興工業化國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6%E6%88%96%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>已開發國家或地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9B%9B%E5%B0%8F%E9%BE%99</t>
-  </si>
-  <si>
-    <t>亚洲四小龙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%80%81%E5%8C%96</t>
-  </si>
-  <si>
-    <t>人口老化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%B1%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>就业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>福利國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>工业化国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>八大工業國組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>经济合作与发展组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>西歐聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>北大西洋公约组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>第三世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B4%E5%B8%82%E5%9C%BA</t>
-  </si>
-  <si>
-    <t>新兴市场</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>秘魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>泰國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%9B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>金砖四国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%95%E6%9C%9B%E4%BA%94%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>展望五国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%9D%A511%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>未来11国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9B%9B%E5%B0%8F%E8%99%8E</t>
-  </si>
-  <si>
-    <t>亚洲四小虎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%B8%8D%E5%8F%91%E8%BE%BE%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>最不发达国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
-  </si>
-  <si>
-    <t>緬甸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
-  </si>
-  <si>
-    <t>葉門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>撒哈拉以南非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
-  </si>
-  <si>
-    <t>賴索托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>剛果民主共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>尚比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>衣索比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>南蘇丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>聖多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>索馬利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
-  </si>
-  <si>
-    <t>瓦努阿圖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%95%97%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>失敗國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%84%86%E5%BC%B1%E5%9B%BD%E5%AE%B6%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>脆弱国家指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%97%E5%90%88%E4%BD%9C</t>
-  </si>
-  <si>
-    <t>南南合作</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E5%85%B1%E5%A4%84%E4%BA%94%E9%A1%B9%E5%8E%9F%E5%88%99</t>
-  </si>
-  <si>
-    <t>和平共处五项原则</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%85%B1%E8%AF%86</t>
-  </si>
-  <si>
-    <t>北京共识</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%B0%90%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>和谐世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>人口控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>金砖国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>南方共同市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>经济合作组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>东南亚国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%B2%9B%E5%9B%BD%E8%AE%BA%E5%9D%9B</t>
-  </si>
-  <si>
-    <t>太平洋岛国论坛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%90%88%E4%BD%9C%E8%AE%BA%E5%9D%9B</t>
-  </si>
-  <si>
-    <t>中非合作论坛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%A7%91%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>世界科学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/20%E5%9C%8B%E9%9B%86%E5%9C%98</t>
-  </si>
-  <si>
-    <t>20國集團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%8D%81%E4%B8%83%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>七十七国集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>人类发展指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
-  </si>
-  <si>
-    <t>國民收入</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%94%BF%E6%8D%AE%E7%82%B9</t>
-  </si>
-  <si>
-    <t>暴政据点</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>世界體系理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E%E8%A1%9D%E7%AA%81%E8%AB%96</t>
-  </si>
-  <si>
-    <t>文明衝突論</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
@@ -3732,12 +3072,6 @@
   </si>
   <si>
     <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
-  </si>
-  <si>
-    <t>地理坐标</t>
   </si>
 </sst>
 </file>
@@ -4086,7 +3420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I648"/>
+  <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4140,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -4169,7 +3503,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -4198,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -4314,7 +3648,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -4337,13 +3671,13 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -4372,7 +3706,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -4401,7 +3735,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -4430,7 +3764,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -4459,7 +3793,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -4517,7 +3851,7 @@
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -4546,7 +3880,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -4575,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -4604,7 +3938,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -4633,7 +3967,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -4720,7 +4054,7 @@
         <v>42</v>
       </c>
       <c r="G22" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -4749,7 +4083,7 @@
         <v>44</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -4772,13 +4106,13 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -4801,13 +4135,13 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -4830,13 +4164,13 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -4894,7 +4228,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -4923,7 +4257,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -4952,7 +4286,7 @@
         <v>54</v>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -4981,7 +4315,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -5010,7 +4344,7 @@
         <v>58</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -5039,7 +4373,7 @@
         <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -5126,7 +4460,7 @@
         <v>66</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -5242,7 +4576,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -5271,7 +4605,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -5387,7 +4721,7 @@
         <v>84</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -5416,7 +4750,7 @@
         <v>86</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -5590,7 +4924,7 @@
         <v>98</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -5619,7 +4953,7 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -5648,7 +4982,7 @@
         <v>102</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -5677,7 +5011,7 @@
         <v>104</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -5706,7 +5040,7 @@
         <v>106</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -5735,7 +5069,7 @@
         <v>108</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -5764,7 +5098,7 @@
         <v>110</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -5793,7 +5127,7 @@
         <v>112</v>
       </c>
       <c r="G59" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -5822,7 +5156,7 @@
         <v>114</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -5851,7 +5185,7 @@
         <v>116</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -5880,7 +5214,7 @@
         <v>118</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -6164,10 +5498,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -6199,7 +5533,7 @@
         <v>138</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -6228,7 +5562,7 @@
         <v>140</v>
       </c>
       <c r="G74" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -6257,7 +5591,7 @@
         <v>142</v>
       </c>
       <c r="G75" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -6286,7 +5620,7 @@
         <v>144</v>
       </c>
       <c r="G76" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -6315,7 +5649,7 @@
         <v>146</v>
       </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -6344,7 +5678,7 @@
         <v>148</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -6373,7 +5707,7 @@
         <v>150</v>
       </c>
       <c r="G79" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -6402,7 +5736,7 @@
         <v>152</v>
       </c>
       <c r="G80" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -6431,7 +5765,7 @@
         <v>154</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -6460,7 +5794,7 @@
         <v>156</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -6489,7 +5823,7 @@
         <v>158</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -6547,7 +5881,7 @@
         <v>162</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -6576,7 +5910,7 @@
         <v>164</v>
       </c>
       <c r="G86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -6634,7 +5968,7 @@
         <v>168</v>
       </c>
       <c r="G88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -6663,7 +5997,7 @@
         <v>170</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -6692,7 +6026,7 @@
         <v>172</v>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -6721,7 +6055,7 @@
         <v>174</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -6750,7 +6084,7 @@
         <v>176</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -6779,7 +6113,7 @@
         <v>178</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -6837,7 +6171,7 @@
         <v>182</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -6895,7 +6229,7 @@
         <v>186</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -6953,7 +6287,7 @@
         <v>190</v>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -6982,7 +6316,7 @@
         <v>192</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -7011,7 +6345,7 @@
         <v>194</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -7040,7 +6374,7 @@
         <v>196</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -7156,7 +6490,7 @@
         <v>204</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -7185,7 +6519,7 @@
         <v>206</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -7214,7 +6548,7 @@
         <v>208</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -7243,7 +6577,7 @@
         <v>210</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -7272,7 +6606,7 @@
         <v>212</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -7301,7 +6635,7 @@
         <v>214</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -7388,7 +6722,7 @@
         <v>220</v>
       </c>
       <c r="G114" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -7417,7 +6751,7 @@
         <v>222</v>
       </c>
       <c r="G115" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -7446,7 +6780,7 @@
         <v>224</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -7475,7 +6809,7 @@
         <v>226</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -7504,7 +6838,7 @@
         <v>228</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -7591,7 +6925,7 @@
         <v>234</v>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -7649,7 +6983,7 @@
         <v>238</v>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -7678,7 +7012,7 @@
         <v>240</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -7765,7 +7099,7 @@
         <v>246</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -7794,7 +7128,7 @@
         <v>248</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -7823,7 +7157,7 @@
         <v>250</v>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -7881,7 +7215,7 @@
         <v>254</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -7910,7 +7244,7 @@
         <v>256</v>
       </c>
       <c r="G132" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -7939,7 +7273,7 @@
         <v>258</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -7968,7 +7302,7 @@
         <v>260</v>
       </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -7997,7 +7331,7 @@
         <v>262</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -8171,7 +7505,7 @@
         <v>274</v>
       </c>
       <c r="G141" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -8200,7 +7534,7 @@
         <v>276</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -8229,7 +7563,7 @@
         <v>278</v>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -8258,7 +7592,7 @@
         <v>280</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -8287,7 +7621,7 @@
         <v>282</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -8345,7 +7679,7 @@
         <v>286</v>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -8374,7 +7708,7 @@
         <v>288</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -8461,7 +7795,7 @@
         <v>294</v>
       </c>
       <c r="G151" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -8490,7 +7824,7 @@
         <v>296</v>
       </c>
       <c r="G152" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -8519,7 +7853,7 @@
         <v>298</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -8548,7 +7882,7 @@
         <v>300</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -8693,7 +8027,7 @@
         <v>310</v>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -8722,7 +8056,7 @@
         <v>312</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -8780,7 +8114,7 @@
         <v>316</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -8809,7 +8143,7 @@
         <v>318</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -8832,13 +8166,13 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>151</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -8861,10 +8195,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>154</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8896,7 +8230,7 @@
         <v>322</v>
       </c>
       <c r="G166" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -8925,7 +8259,7 @@
         <v>324</v>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -8954,7 +8288,7 @@
         <v>326</v>
       </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -8983,7 +8317,7 @@
         <v>328</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -9012,7 +8346,7 @@
         <v>330</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -9041,7 +8375,7 @@
         <v>332</v>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -9070,7 +8404,7 @@
         <v>334</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -9099,7 +8433,7 @@
         <v>336</v>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -9128,7 +8462,7 @@
         <v>338</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -9157,7 +8491,7 @@
         <v>340</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -9186,7 +8520,7 @@
         <v>342</v>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -9215,7 +8549,7 @@
         <v>344</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -9244,7 +8578,7 @@
         <v>346</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -9331,7 +8665,7 @@
         <v>352</v>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -9360,7 +8694,7 @@
         <v>354</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -9418,7 +8752,7 @@
         <v>358</v>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -9447,7 +8781,7 @@
         <v>360</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -9499,10 +8833,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>5</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>6</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9528,13 +8862,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>7</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>8</v>
       </c>
       <c r="G188" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -9557,13 +8891,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>8</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -9586,10 +8920,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>9</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>10</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9702,10 +9036,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>138</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9731,10 +9065,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="F195" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9760,10 +9094,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>104</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9882,7 +9216,7 @@
         <v>382</v>
       </c>
       <c r="G200" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -9911,7 +9245,7 @@
         <v>384</v>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -9940,7 +9274,7 @@
         <v>386</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -10027,7 +9361,7 @@
         <v>392</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -10056,7 +9390,7 @@
         <v>394</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -10114,7 +9448,7 @@
         <v>398</v>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -10143,7 +9477,7 @@
         <v>400</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -10166,13 +9500,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>152</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -10195,13 +9529,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>153</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>154</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -10230,7 +9564,7 @@
         <v>404</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -10375,7 +9709,7 @@
         <v>414</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -10404,7 +9738,7 @@
         <v>416</v>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -10520,7 +9854,7 @@
         <v>424</v>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -10549,7 +9883,7 @@
         <v>426</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -10578,7 +9912,7 @@
         <v>428</v>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -10607,7 +9941,7 @@
         <v>430</v>
       </c>
       <c r="G225" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -10636,7 +9970,7 @@
         <v>432</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -10694,7 +10028,7 @@
         <v>436</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -11042,7 +10376,7 @@
         <v>460</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -11071,7 +10405,7 @@
         <v>462</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -11129,7 +10463,7 @@
         <v>466</v>
       </c>
       <c r="G243" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -11158,7 +10492,7 @@
         <v>468</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -11529,13 +10863,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>63</v>
+        <v>493</v>
       </c>
       <c r="F257" t="s">
-        <v>64</v>
+        <v>494</v>
       </c>
       <c r="G257" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -11558,13 +10892,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>65</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>66</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -11767,7 +11101,7 @@
         <v>508</v>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -11796,7 +11130,7 @@
         <v>510</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -11912,7 +11246,7 @@
         <v>518</v>
       </c>
       <c r="G270" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -11941,7 +11275,7 @@
         <v>520</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -12202,7 +11536,7 @@
         <v>538</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -12231,7 +11565,7 @@
         <v>540</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -12260,7 +11594,7 @@
         <v>542</v>
       </c>
       <c r="G282" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -12289,7 +11623,7 @@
         <v>544</v>
       </c>
       <c r="G283" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -12318,7 +11652,7 @@
         <v>546</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -12347,7 +11681,7 @@
         <v>548</v>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -12376,7 +11710,7 @@
         <v>550</v>
       </c>
       <c r="G286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -12434,7 +11768,7 @@
         <v>554</v>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -12463,7 +11797,7 @@
         <v>556</v>
       </c>
       <c r="G289" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -12521,7 +11855,7 @@
         <v>560</v>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -12550,7 +11884,7 @@
         <v>562</v>
       </c>
       <c r="G292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -12608,7 +11942,7 @@
         <v>566</v>
       </c>
       <c r="G294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -12637,7 +11971,7 @@
         <v>568</v>
       </c>
       <c r="G295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -12666,7 +12000,7 @@
         <v>570</v>
       </c>
       <c r="G296" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -12695,7 +12029,7 @@
         <v>572</v>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12724,7 +12058,7 @@
         <v>574</v>
       </c>
       <c r="G298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -12782,7 +12116,7 @@
         <v>578</v>
       </c>
       <c r="G300" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -12840,7 +12174,7 @@
         <v>582</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -12869,7 +12203,7 @@
         <v>584</v>
       </c>
       <c r="G303" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -12898,7 +12232,7 @@
         <v>586</v>
       </c>
       <c r="G304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -12985,7 +12319,7 @@
         <v>592</v>
       </c>
       <c r="G307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -13014,7 +12348,7 @@
         <v>594</v>
       </c>
       <c r="G308" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -13159,7 +12493,7 @@
         <v>604</v>
       </c>
       <c r="G313" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -13188,7 +12522,7 @@
         <v>606</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -13217,7 +12551,7 @@
         <v>608</v>
       </c>
       <c r="G315" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -13246,7 +12580,7 @@
         <v>610</v>
       </c>
       <c r="G316" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -13275,7 +12609,7 @@
         <v>612</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -13362,7 +12696,7 @@
         <v>618</v>
       </c>
       <c r="G320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -13391,7 +12725,7 @@
         <v>620</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -13420,7 +12754,7 @@
         <v>622</v>
       </c>
       <c r="G322" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -13536,7 +12870,7 @@
         <v>630</v>
       </c>
       <c r="G326" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -13565,7 +12899,7 @@
         <v>632</v>
       </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -13623,7 +12957,7 @@
         <v>636</v>
       </c>
       <c r="G329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -13681,7 +13015,7 @@
         <v>640</v>
       </c>
       <c r="G331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -13710,7 +13044,7 @@
         <v>642</v>
       </c>
       <c r="G332" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -13768,7 +13102,7 @@
         <v>646</v>
       </c>
       <c r="G334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -13826,7 +13160,7 @@
         <v>650</v>
       </c>
       <c r="G336" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -13855,7 +13189,7 @@
         <v>652</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -14000,7 +13334,7 @@
         <v>662</v>
       </c>
       <c r="G342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -14029,7 +13363,7 @@
         <v>664</v>
       </c>
       <c r="G343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -14058,7 +13392,7 @@
         <v>666</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -14116,7 +13450,7 @@
         <v>670</v>
       </c>
       <c r="G346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -14232,7 +13566,7 @@
         <v>678</v>
       </c>
       <c r="G350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -14290,7 +13624,7 @@
         <v>682</v>
       </c>
       <c r="G352" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -14319,7 +13653,7 @@
         <v>684</v>
       </c>
       <c r="G353" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -14377,7 +13711,7 @@
         <v>688</v>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -14406,7 +13740,7 @@
         <v>690</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -14435,7 +13769,7 @@
         <v>692</v>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -14580,7 +13914,7 @@
         <v>702</v>
       </c>
       <c r="G362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -14609,7 +13943,7 @@
         <v>704</v>
       </c>
       <c r="G363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -14696,7 +14030,7 @@
         <v>710</v>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -14754,7 +14088,7 @@
         <v>714</v>
       </c>
       <c r="G368" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -14783,7 +14117,7 @@
         <v>716</v>
       </c>
       <c r="G369" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -14806,13 +14140,13 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="F370" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="G370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -14835,10 +14169,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>717</v>
+        <v>645</v>
       </c>
       <c r="F371" t="s">
-        <v>718</v>
+        <v>646</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14928,7 +14262,7 @@
         <v>724</v>
       </c>
       <c r="G374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -14957,7 +14291,7 @@
         <v>726</v>
       </c>
       <c r="G375" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -14986,7 +14320,7 @@
         <v>728</v>
       </c>
       <c r="G376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -15015,7 +14349,7 @@
         <v>730</v>
       </c>
       <c r="G377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -15044,7 +14378,7 @@
         <v>732</v>
       </c>
       <c r="G378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -15073,7 +14407,7 @@
         <v>734</v>
       </c>
       <c r="G379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -15102,7 +14436,7 @@
         <v>736</v>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -15131,7 +14465,7 @@
         <v>738</v>
       </c>
       <c r="G381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -15160,7 +14494,7 @@
         <v>740</v>
       </c>
       <c r="G382" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -15189,7 +14523,7 @@
         <v>742</v>
       </c>
       <c r="G383" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -15218,7 +14552,7 @@
         <v>744</v>
       </c>
       <c r="G384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -15276,7 +14610,7 @@
         <v>748</v>
       </c>
       <c r="G386" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -15305,7 +14639,7 @@
         <v>750</v>
       </c>
       <c r="G387" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -15334,7 +14668,7 @@
         <v>752</v>
       </c>
       <c r="G388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -15392,7 +14726,7 @@
         <v>756</v>
       </c>
       <c r="G390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -15421,7 +14755,7 @@
         <v>758</v>
       </c>
       <c r="G391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -15450,7 +14784,7 @@
         <v>760</v>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -15479,7 +14813,7 @@
         <v>762</v>
       </c>
       <c r="G393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -15508,7 +14842,7 @@
         <v>764</v>
       </c>
       <c r="G394" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -15537,7 +14871,7 @@
         <v>766</v>
       </c>
       <c r="G395" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -15566,7 +14900,7 @@
         <v>768</v>
       </c>
       <c r="G396" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -15624,7 +14958,7 @@
         <v>772</v>
       </c>
       <c r="G398" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -15653,7 +14987,7 @@
         <v>774</v>
       </c>
       <c r="G399" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -15682,7 +15016,7 @@
         <v>776</v>
       </c>
       <c r="G400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -15711,7 +15045,7 @@
         <v>778</v>
       </c>
       <c r="G401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -15740,7 +15074,7 @@
         <v>780</v>
       </c>
       <c r="G402" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
@@ -15827,7 +15161,7 @@
         <v>786</v>
       </c>
       <c r="G405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H405" t="s">
         <v>4</v>
@@ -15856,7 +15190,7 @@
         <v>788</v>
       </c>
       <c r="G406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -15908,10 +15242,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>657</v>
+        <v>791</v>
       </c>
       <c r="F408" t="s">
-        <v>658</v>
+        <v>792</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15937,10 +15271,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>791</v>
+        <v>659</v>
       </c>
       <c r="F409" t="s">
-        <v>792</v>
+        <v>660</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16726,7 +16060,7 @@
         <v>846</v>
       </c>
       <c r="G436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -16755,7 +16089,7 @@
         <v>848</v>
       </c>
       <c r="G437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H437" t="s">
         <v>4</v>
@@ -16813,7 +16147,7 @@
         <v>852</v>
       </c>
       <c r="G439" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H439" t="s">
         <v>4</v>
@@ -16842,7 +16176,7 @@
         <v>854</v>
       </c>
       <c r="G440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -16900,7 +16234,7 @@
         <v>858</v>
       </c>
       <c r="G442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -16987,7 +16321,7 @@
         <v>864</v>
       </c>
       <c r="G445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -17016,7 +16350,7 @@
         <v>866</v>
       </c>
       <c r="G446" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H446" t="s">
         <v>4</v>
@@ -17045,7 +16379,7 @@
         <v>868</v>
       </c>
       <c r="G447" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H447" t="s">
         <v>4</v>
@@ -17132,7 +16466,7 @@
         <v>874</v>
       </c>
       <c r="G450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -17161,7 +16495,7 @@
         <v>876</v>
       </c>
       <c r="G451" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H451" t="s">
         <v>4</v>
@@ -17219,7 +16553,7 @@
         <v>880</v>
       </c>
       <c r="G453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H453" t="s">
         <v>4</v>
@@ -17242,13 +16576,13 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
+        <v>881</v>
+      </c>
+      <c r="F454" t="s">
+        <v>882</v>
+      </c>
+      <c r="G454" t="n">
         <v>2</v>
-      </c>
-      <c r="F454" t="s">
-        <v>3</v>
-      </c>
-      <c r="G454" t="n">
-        <v>1</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
@@ -17271,13 +16605,13 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>881</v>
+        <v>5</v>
       </c>
       <c r="F455" t="s">
-        <v>882</v>
+        <v>6</v>
       </c>
       <c r="G455" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H455" t="s">
         <v>4</v>
@@ -17335,7 +16669,7 @@
         <v>886</v>
       </c>
       <c r="G457" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -17364,7 +16698,7 @@
         <v>888</v>
       </c>
       <c r="G458" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -17422,7 +16756,7 @@
         <v>892</v>
       </c>
       <c r="G460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -17480,7 +16814,7 @@
         <v>896</v>
       </c>
       <c r="G462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
@@ -17503,10 +16837,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>645</v>
+        <v>897</v>
       </c>
       <c r="F463" t="s">
-        <v>646</v>
+        <v>898</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17532,13 +16866,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>897</v>
+        <v>647</v>
       </c>
       <c r="F464" t="s">
-        <v>898</v>
+        <v>648</v>
       </c>
       <c r="G464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -17654,7 +16988,7 @@
         <v>906</v>
       </c>
       <c r="G468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H468" t="s">
         <v>4</v>
@@ -17683,7 +17017,7 @@
         <v>908</v>
       </c>
       <c r="G469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H469" t="s">
         <v>4</v>
@@ -17712,7 +17046,7 @@
         <v>910</v>
       </c>
       <c r="G470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -17770,7 +17104,7 @@
         <v>914</v>
       </c>
       <c r="G472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -17973,7 +17307,7 @@
         <v>928</v>
       </c>
       <c r="G479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H479" t="s">
         <v>4</v>
@@ -18031,7 +17365,7 @@
         <v>932</v>
       </c>
       <c r="G481" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H481" t="s">
         <v>4</v>
@@ -18089,7 +17423,7 @@
         <v>936</v>
       </c>
       <c r="G483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -18176,7 +17510,7 @@
         <v>942</v>
       </c>
       <c r="G486" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H486" t="s">
         <v>4</v>
@@ -18205,7 +17539,7 @@
         <v>944</v>
       </c>
       <c r="G487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H487" t="s">
         <v>4</v>
@@ -18263,7 +17597,7 @@
         <v>948</v>
       </c>
       <c r="G489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H489" t="s">
         <v>4</v>
@@ -18292,7 +17626,7 @@
         <v>950</v>
       </c>
       <c r="G490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -18408,7 +17742,7 @@
         <v>958</v>
       </c>
       <c r="G494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -18460,10 +17794,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>727</v>
+        <v>961</v>
       </c>
       <c r="F496" t="s">
-        <v>728</v>
+        <v>962</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18489,13 +17823,13 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>961</v>
+        <v>729</v>
       </c>
       <c r="F497" t="s">
-        <v>962</v>
+        <v>730</v>
       </c>
       <c r="G497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H497" t="s">
         <v>4</v>
@@ -18524,7 +17858,7 @@
         <v>964</v>
       </c>
       <c r="G498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H498" t="s">
         <v>4</v>
@@ -18634,10 +17968,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>755</v>
+        <v>971</v>
       </c>
       <c r="F502" t="s">
-        <v>756</v>
+        <v>972</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18663,10 +17997,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>971</v>
+        <v>757</v>
       </c>
       <c r="F503" t="s">
-        <v>972</v>
+        <v>758</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18692,10 +18026,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>631</v>
+        <v>973</v>
       </c>
       <c r="F504" t="s">
-        <v>632</v>
+        <v>974</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18721,10 +18055,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="F505" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18750,10 +18084,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>973</v>
+        <v>607</v>
       </c>
       <c r="F506" t="s">
-        <v>974</v>
+        <v>608</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18814,7 +18148,7 @@
         <v>978</v>
       </c>
       <c r="G508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -18843,7 +18177,7 @@
         <v>980</v>
       </c>
       <c r="G509" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -18872,7 +18206,7 @@
         <v>982</v>
       </c>
       <c r="G510" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H510" t="s">
         <v>4</v>
@@ -18901,7 +18235,7 @@
         <v>984</v>
       </c>
       <c r="G511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H511" t="s">
         <v>4</v>
@@ -18959,7 +18293,7 @@
         <v>988</v>
       </c>
       <c r="G513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H513" t="s">
         <v>4</v>
@@ -19127,13 +18461,13 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>911</v>
+        <v>999</v>
       </c>
       <c r="F519" t="s">
-        <v>912</v>
+        <v>1000</v>
       </c>
       <c r="G519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -19156,10 +18490,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="F520" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19185,13 +18519,13 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>841</v>
+        <v>911</v>
       </c>
       <c r="F521" t="s">
-        <v>842</v>
+        <v>912</v>
       </c>
       <c r="G521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H521" t="s">
         <v>4</v>
@@ -19214,13 +18548,13 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>999</v>
+        <v>843</v>
       </c>
       <c r="F522" t="s">
-        <v>1000</v>
+        <v>844</v>
       </c>
       <c r="G522" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H522" t="s">
         <v>4</v>
@@ -19249,7 +18583,7 @@
         <v>1002</v>
       </c>
       <c r="G523" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H523" t="s">
         <v>4</v>
@@ -19278,7 +18612,7 @@
         <v>1004</v>
       </c>
       <c r="G524" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -19394,7 +18728,7 @@
         <v>1012</v>
       </c>
       <c r="G528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H528" t="s">
         <v>4</v>
@@ -19452,7 +18786,7 @@
         <v>1016</v>
       </c>
       <c r="G530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H530" t="s">
         <v>4</v>
@@ -19487,3399 +18821,6 @@
         <v>4</v>
       </c>
       <c r="I531" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="532" spans="1:9">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="s">
-        <v>0</v>
-      </c>
-      <c r="C532" t="s">
-        <v>1</v>
-      </c>
-      <c r="D532" t="n">
-        <v>531</v>
-      </c>
-      <c r="E532" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F532" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G532" t="n">
-        <v>2</v>
-      </c>
-      <c r="H532" t="s">
-        <v>4</v>
-      </c>
-      <c r="I532" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="s">
-        <v>0</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1</v>
-      </c>
-      <c r="D533" t="n">
-        <v>532</v>
-      </c>
-      <c r="E533" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F533" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G533" t="n">
-        <v>1</v>
-      </c>
-      <c r="H533" t="s">
-        <v>4</v>
-      </c>
-      <c r="I533" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="534" spans="1:9">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="s">
-        <v>0</v>
-      </c>
-      <c r="C534" t="s">
-        <v>1</v>
-      </c>
-      <c r="D534" t="n">
-        <v>533</v>
-      </c>
-      <c r="E534" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F534" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G534" t="n">
-        <v>1</v>
-      </c>
-      <c r="H534" t="s">
-        <v>4</v>
-      </c>
-      <c r="I534" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="535" spans="1:9">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="s">
-        <v>0</v>
-      </c>
-      <c r="C535" t="s">
-        <v>1</v>
-      </c>
-      <c r="D535" t="n">
-        <v>534</v>
-      </c>
-      <c r="E535" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F535" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G535" t="n">
-        <v>1</v>
-      </c>
-      <c r="H535" t="s">
-        <v>4</v>
-      </c>
-      <c r="I535" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="536" spans="1:9">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="s">
-        <v>0</v>
-      </c>
-      <c r="C536" t="s">
-        <v>1</v>
-      </c>
-      <c r="D536" t="n">
-        <v>535</v>
-      </c>
-      <c r="E536" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F536" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G536" t="n">
-        <v>1</v>
-      </c>
-      <c r="H536" t="s">
-        <v>4</v>
-      </c>
-      <c r="I536" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="s">
-        <v>0</v>
-      </c>
-      <c r="C537" t="s">
-        <v>1</v>
-      </c>
-      <c r="D537" t="n">
-        <v>536</v>
-      </c>
-      <c r="E537" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F537" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G537" t="n">
-        <v>1</v>
-      </c>
-      <c r="H537" t="s">
-        <v>4</v>
-      </c>
-      <c r="I537" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C538" t="s">
-        <v>1</v>
-      </c>
-      <c r="D538" t="n">
-        <v>537</v>
-      </c>
-      <c r="E538" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F538" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G538" t="n">
-        <v>1</v>
-      </c>
-      <c r="H538" t="s">
-        <v>4</v>
-      </c>
-      <c r="I538" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="539" spans="1:9">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="s">
-        <v>0</v>
-      </c>
-      <c r="C539" t="s">
-        <v>1</v>
-      </c>
-      <c r="D539" t="n">
-        <v>538</v>
-      </c>
-      <c r="E539" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F539" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G539" t="n">
-        <v>12</v>
-      </c>
-      <c r="H539" t="s">
-        <v>4</v>
-      </c>
-      <c r="I539" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="540" spans="1:9">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C540" t="s">
-        <v>1</v>
-      </c>
-      <c r="D540" t="n">
-        <v>539</v>
-      </c>
-      <c r="E540" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F540" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G540" t="n">
-        <v>0</v>
-      </c>
-      <c r="H540" t="s">
-        <v>4</v>
-      </c>
-      <c r="I540" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="s">
-        <v>0</v>
-      </c>
-      <c r="C541" t="s">
-        <v>1</v>
-      </c>
-      <c r="D541" t="n">
-        <v>540</v>
-      </c>
-      <c r="E541" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F541" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G541" t="n">
-        <v>1</v>
-      </c>
-      <c r="H541" t="s">
-        <v>4</v>
-      </c>
-      <c r="I541" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="s">
-        <v>0</v>
-      </c>
-      <c r="C542" t="s">
-        <v>1</v>
-      </c>
-      <c r="D542" t="n">
-        <v>541</v>
-      </c>
-      <c r="E542" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F542" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G542" t="n">
-        <v>1</v>
-      </c>
-      <c r="H542" t="s">
-        <v>4</v>
-      </c>
-      <c r="I542" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="s">
-        <v>0</v>
-      </c>
-      <c r="C543" t="s">
-        <v>1</v>
-      </c>
-      <c r="D543" t="n">
-        <v>542</v>
-      </c>
-      <c r="E543" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F543" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G543" t="n">
-        <v>1</v>
-      </c>
-      <c r="H543" t="s">
-        <v>4</v>
-      </c>
-      <c r="I543" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="s">
-        <v>0</v>
-      </c>
-      <c r="C544" t="s">
-        <v>1</v>
-      </c>
-      <c r="D544" t="n">
-        <v>543</v>
-      </c>
-      <c r="E544" t="s">
-        <v>237</v>
-      </c>
-      <c r="F544" t="s">
-        <v>238</v>
-      </c>
-      <c r="G544" t="n">
-        <v>5</v>
-      </c>
-      <c r="H544" t="s">
-        <v>4</v>
-      </c>
-      <c r="I544" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="545" spans="1:9">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="s">
-        <v>0</v>
-      </c>
-      <c r="C545" t="s">
-        <v>1</v>
-      </c>
-      <c r="D545" t="n">
-        <v>544</v>
-      </c>
-      <c r="E545" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F545" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G545" t="n">
-        <v>1</v>
-      </c>
-      <c r="H545" t="s">
-        <v>4</v>
-      </c>
-      <c r="I545" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="s">
-        <v>0</v>
-      </c>
-      <c r="C546" t="s">
-        <v>1</v>
-      </c>
-      <c r="D546" t="n">
-        <v>545</v>
-      </c>
-      <c r="E546" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F546" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G546" t="n">
-        <v>1</v>
-      </c>
-      <c r="H546" t="s">
-        <v>4</v>
-      </c>
-      <c r="I546" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="s">
-        <v>0</v>
-      </c>
-      <c r="C547" t="s">
-        <v>1</v>
-      </c>
-      <c r="D547" t="n">
-        <v>546</v>
-      </c>
-      <c r="E547" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F547" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G547" t="n">
-        <v>1</v>
-      </c>
-      <c r="H547" t="s">
-        <v>4</v>
-      </c>
-      <c r="I547" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="548" spans="1:9">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="s">
-        <v>0</v>
-      </c>
-      <c r="C548" t="s">
-        <v>1</v>
-      </c>
-      <c r="D548" t="n">
-        <v>547</v>
-      </c>
-      <c r="E548" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F548" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G548" t="n">
-        <v>1</v>
-      </c>
-      <c r="H548" t="s">
-        <v>4</v>
-      </c>
-      <c r="I548" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="s">
-        <v>0</v>
-      </c>
-      <c r="C549" t="s">
-        <v>1</v>
-      </c>
-      <c r="D549" t="n">
-        <v>548</v>
-      </c>
-      <c r="E549" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F549" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G549" t="n">
-        <v>1</v>
-      </c>
-      <c r="H549" t="s">
-        <v>4</v>
-      </c>
-      <c r="I549" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="s">
-        <v>0</v>
-      </c>
-      <c r="C550" t="s">
-        <v>1</v>
-      </c>
-      <c r="D550" t="n">
-        <v>549</v>
-      </c>
-      <c r="E550" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F550" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G550" t="n">
-        <v>1</v>
-      </c>
-      <c r="H550" t="s">
-        <v>4</v>
-      </c>
-      <c r="I550" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="551" spans="1:9">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="s">
-        <v>0</v>
-      </c>
-      <c r="C551" t="s">
-        <v>1</v>
-      </c>
-      <c r="D551" t="n">
-        <v>550</v>
-      </c>
-      <c r="E551" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F551" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G551" t="n">
-        <v>1</v>
-      </c>
-      <c r="H551" t="s">
-        <v>4</v>
-      </c>
-      <c r="I551" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="s">
-        <v>0</v>
-      </c>
-      <c r="C552" t="s">
-        <v>1</v>
-      </c>
-      <c r="D552" t="n">
-        <v>551</v>
-      </c>
-      <c r="E552" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F552" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G552" t="n">
-        <v>1</v>
-      </c>
-      <c r="H552" t="s">
-        <v>4</v>
-      </c>
-      <c r="I552" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="s">
-        <v>0</v>
-      </c>
-      <c r="C553" t="s">
-        <v>1</v>
-      </c>
-      <c r="D553" t="n">
-        <v>552</v>
-      </c>
-      <c r="E553" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F553" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G553" t="n">
-        <v>2</v>
-      </c>
-      <c r="H553" t="s">
-        <v>4</v>
-      </c>
-      <c r="I553" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="s">
-        <v>0</v>
-      </c>
-      <c r="C554" t="s">
-        <v>1</v>
-      </c>
-      <c r="D554" t="n">
-        <v>553</v>
-      </c>
-      <c r="E554" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F554" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G554" t="n">
-        <v>1</v>
-      </c>
-      <c r="H554" t="s">
-        <v>4</v>
-      </c>
-      <c r="I554" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="s">
-        <v>0</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1</v>
-      </c>
-      <c r="D555" t="n">
-        <v>554</v>
-      </c>
-      <c r="E555" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F555" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G555" t="n">
-        <v>1</v>
-      </c>
-      <c r="H555" t="s">
-        <v>4</v>
-      </c>
-      <c r="I555" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="s">
-        <v>0</v>
-      </c>
-      <c r="C556" t="s">
-        <v>1</v>
-      </c>
-      <c r="D556" t="n">
-        <v>555</v>
-      </c>
-      <c r="E556" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F556" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G556" t="n">
-        <v>1</v>
-      </c>
-      <c r="H556" t="s">
-        <v>4</v>
-      </c>
-      <c r="I556" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="s">
-        <v>0</v>
-      </c>
-      <c r="C557" t="s">
-        <v>1</v>
-      </c>
-      <c r="D557" t="n">
-        <v>556</v>
-      </c>
-      <c r="E557" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F557" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G557" t="n">
-        <v>1</v>
-      </c>
-      <c r="H557" t="s">
-        <v>4</v>
-      </c>
-      <c r="I557" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="s">
-        <v>0</v>
-      </c>
-      <c r="C558" t="s">
-        <v>1</v>
-      </c>
-      <c r="D558" t="n">
-        <v>557</v>
-      </c>
-      <c r="E558" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F558" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G558" t="n">
-        <v>1</v>
-      </c>
-      <c r="H558" t="s">
-        <v>4</v>
-      </c>
-      <c r="I558" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="s">
-        <v>0</v>
-      </c>
-      <c r="C559" t="s">
-        <v>1</v>
-      </c>
-      <c r="D559" t="n">
-        <v>558</v>
-      </c>
-      <c r="E559" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F559" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G559" t="n">
-        <v>1</v>
-      </c>
-      <c r="H559" t="s">
-        <v>4</v>
-      </c>
-      <c r="I559" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="s">
-        <v>0</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1</v>
-      </c>
-      <c r="D560" t="n">
-        <v>559</v>
-      </c>
-      <c r="E560" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F560" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G560" t="n">
-        <v>1</v>
-      </c>
-      <c r="H560" t="s">
-        <v>4</v>
-      </c>
-      <c r="I560" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="561" spans="1:9">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="s">
-        <v>0</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1</v>
-      </c>
-      <c r="D561" t="n">
-        <v>560</v>
-      </c>
-      <c r="E561" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F561" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G561" t="n">
-        <v>1</v>
-      </c>
-      <c r="H561" t="s">
-        <v>4</v>
-      </c>
-      <c r="I561" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="562" spans="1:9">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="s">
-        <v>0</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1</v>
-      </c>
-      <c r="D562" t="n">
-        <v>561</v>
-      </c>
-      <c r="E562" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F562" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G562" t="n">
-        <v>1</v>
-      </c>
-      <c r="H562" t="s">
-        <v>4</v>
-      </c>
-      <c r="I562" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="563" spans="1:9">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="s">
-        <v>0</v>
-      </c>
-      <c r="C563" t="s">
-        <v>1</v>
-      </c>
-      <c r="D563" t="n">
-        <v>562</v>
-      </c>
-      <c r="E563" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F563" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G563" t="n">
-        <v>2</v>
-      </c>
-      <c r="H563" t="s">
-        <v>4</v>
-      </c>
-      <c r="I563" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="564" spans="1:9">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="s">
-        <v>0</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1</v>
-      </c>
-      <c r="D564" t="n">
-        <v>563</v>
-      </c>
-      <c r="E564" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F564" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G564" t="n">
-        <v>1</v>
-      </c>
-      <c r="H564" t="s">
-        <v>4</v>
-      </c>
-      <c r="I564" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="565" spans="1:9">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="s">
-        <v>0</v>
-      </c>
-      <c r="C565" t="s">
-        <v>1</v>
-      </c>
-      <c r="D565" t="n">
-        <v>564</v>
-      </c>
-      <c r="E565" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F565" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G565" t="n">
-        <v>1</v>
-      </c>
-      <c r="H565" t="s">
-        <v>4</v>
-      </c>
-      <c r="I565" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="566" spans="1:9">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="s">
-        <v>0</v>
-      </c>
-      <c r="C566" t="s">
-        <v>1</v>
-      </c>
-      <c r="D566" t="n">
-        <v>565</v>
-      </c>
-      <c r="E566" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F566" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G566" t="n">
-        <v>1</v>
-      </c>
-      <c r="H566" t="s">
-        <v>4</v>
-      </c>
-      <c r="I566" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="567" spans="1:9">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="s">
-        <v>0</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1</v>
-      </c>
-      <c r="D567" t="n">
-        <v>566</v>
-      </c>
-      <c r="E567" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F567" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G567" t="n">
-        <v>1</v>
-      </c>
-      <c r="H567" t="s">
-        <v>4</v>
-      </c>
-      <c r="I567" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="568" spans="1:9">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="s">
-        <v>0</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1</v>
-      </c>
-      <c r="D568" t="n">
-        <v>567</v>
-      </c>
-      <c r="E568" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F568" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G568" t="n">
-        <v>1</v>
-      </c>
-      <c r="H568" t="s">
-        <v>4</v>
-      </c>
-      <c r="I568" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="569" spans="1:9">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="s">
-        <v>0</v>
-      </c>
-      <c r="C569" t="s">
-        <v>1</v>
-      </c>
-      <c r="D569" t="n">
-        <v>568</v>
-      </c>
-      <c r="E569" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F569" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G569" t="n">
-        <v>1</v>
-      </c>
-      <c r="H569" t="s">
-        <v>4</v>
-      </c>
-      <c r="I569" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="570" spans="1:9">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="s">
-        <v>0</v>
-      </c>
-      <c r="C570" t="s">
-        <v>1</v>
-      </c>
-      <c r="D570" t="n">
-        <v>569</v>
-      </c>
-      <c r="E570" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F570" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G570" t="n">
-        <v>1</v>
-      </c>
-      <c r="H570" t="s">
-        <v>4</v>
-      </c>
-      <c r="I570" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="571" spans="1:9">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="s">
-        <v>0</v>
-      </c>
-      <c r="C571" t="s">
-        <v>1</v>
-      </c>
-      <c r="D571" t="n">
-        <v>570</v>
-      </c>
-      <c r="E571" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F571" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G571" t="n">
-        <v>1</v>
-      </c>
-      <c r="H571" t="s">
-        <v>4</v>
-      </c>
-      <c r="I571" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="572" spans="1:9">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="s">
-        <v>0</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1</v>
-      </c>
-      <c r="D572" t="n">
-        <v>571</v>
-      </c>
-      <c r="E572" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F572" t="s">
-        <v>1096</v>
-      </c>
-      <c r="G572" t="n">
-        <v>1</v>
-      </c>
-      <c r="H572" t="s">
-        <v>4</v>
-      </c>
-      <c r="I572" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="573" spans="1:9">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="s">
-        <v>0</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1</v>
-      </c>
-      <c r="D573" t="n">
-        <v>572</v>
-      </c>
-      <c r="E573" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F573" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G573" t="n">
-        <v>1</v>
-      </c>
-      <c r="H573" t="s">
-        <v>4</v>
-      </c>
-      <c r="I573" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="574" spans="1:9">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="s">
-        <v>0</v>
-      </c>
-      <c r="C574" t="s">
-        <v>1</v>
-      </c>
-      <c r="D574" t="n">
-        <v>573</v>
-      </c>
-      <c r="E574" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F574" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G574" t="n">
-        <v>1</v>
-      </c>
-      <c r="H574" t="s">
-        <v>4</v>
-      </c>
-      <c r="I574" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="575" spans="1:9">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="s">
-        <v>0</v>
-      </c>
-      <c r="C575" t="s">
-        <v>1</v>
-      </c>
-      <c r="D575" t="n">
-        <v>574</v>
-      </c>
-      <c r="E575" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F575" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G575" t="n">
-        <v>1</v>
-      </c>
-      <c r="H575" t="s">
-        <v>4</v>
-      </c>
-      <c r="I575" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="576" spans="1:9">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="s">
-        <v>0</v>
-      </c>
-      <c r="C576" t="s">
-        <v>1</v>
-      </c>
-      <c r="D576" t="n">
-        <v>575</v>
-      </c>
-      <c r="E576" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F576" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G576" t="n">
-        <v>1</v>
-      </c>
-      <c r="H576" t="s">
-        <v>4</v>
-      </c>
-      <c r="I576" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="577" spans="1:9">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="s">
-        <v>0</v>
-      </c>
-      <c r="C577" t="s">
-        <v>1</v>
-      </c>
-      <c r="D577" t="n">
-        <v>576</v>
-      </c>
-      <c r="E577" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F577" t="s">
-        <v>1106</v>
-      </c>
-      <c r="G577" t="n">
-        <v>2</v>
-      </c>
-      <c r="H577" t="s">
-        <v>4</v>
-      </c>
-      <c r="I577" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="578" spans="1:9">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="s">
-        <v>0</v>
-      </c>
-      <c r="C578" t="s">
-        <v>1</v>
-      </c>
-      <c r="D578" t="n">
-        <v>577</v>
-      </c>
-      <c r="E578" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F578" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G578" t="n">
-        <v>1</v>
-      </c>
-      <c r="H578" t="s">
-        <v>4</v>
-      </c>
-      <c r="I578" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="579" spans="1:9">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="s">
-        <v>0</v>
-      </c>
-      <c r="C579" t="s">
-        <v>1</v>
-      </c>
-      <c r="D579" t="n">
-        <v>578</v>
-      </c>
-      <c r="E579" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F579" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G579" t="n">
-        <v>1</v>
-      </c>
-      <c r="H579" t="s">
-        <v>4</v>
-      </c>
-      <c r="I579" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="580" spans="1:9">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="s">
-        <v>0</v>
-      </c>
-      <c r="C580" t="s">
-        <v>1</v>
-      </c>
-      <c r="D580" t="n">
-        <v>579</v>
-      </c>
-      <c r="E580" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F580" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G580" t="n">
-        <v>1</v>
-      </c>
-      <c r="H580" t="s">
-        <v>4</v>
-      </c>
-      <c r="I580" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="581" spans="1:9">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="s">
-        <v>0</v>
-      </c>
-      <c r="C581" t="s">
-        <v>1</v>
-      </c>
-      <c r="D581" t="n">
-        <v>580</v>
-      </c>
-      <c r="E581" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F581" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G581" t="n">
-        <v>1</v>
-      </c>
-      <c r="H581" t="s">
-        <v>4</v>
-      </c>
-      <c r="I581" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="582" spans="1:9">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="s">
-        <v>0</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1</v>
-      </c>
-      <c r="D582" t="n">
-        <v>581</v>
-      </c>
-      <c r="E582" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F582" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G582" t="n">
-        <v>1</v>
-      </c>
-      <c r="H582" t="s">
-        <v>4</v>
-      </c>
-      <c r="I582" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="583" spans="1:9">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="s">
-        <v>0</v>
-      </c>
-      <c r="C583" t="s">
-        <v>1</v>
-      </c>
-      <c r="D583" t="n">
-        <v>582</v>
-      </c>
-      <c r="E583" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F583" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G583" t="n">
-        <v>1</v>
-      </c>
-      <c r="H583" t="s">
-        <v>4</v>
-      </c>
-      <c r="I583" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="584" spans="1:9">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="s">
-        <v>0</v>
-      </c>
-      <c r="C584" t="s">
-        <v>1</v>
-      </c>
-      <c r="D584" t="n">
-        <v>583</v>
-      </c>
-      <c r="E584" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F584" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G584" t="n">
-        <v>1</v>
-      </c>
-      <c r="H584" t="s">
-        <v>4</v>
-      </c>
-      <c r="I584" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="585" spans="1:9">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="s">
-        <v>0</v>
-      </c>
-      <c r="C585" t="s">
-        <v>1</v>
-      </c>
-      <c r="D585" t="n">
-        <v>584</v>
-      </c>
-      <c r="E585" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F585" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G585" t="n">
-        <v>1</v>
-      </c>
-      <c r="H585" t="s">
-        <v>4</v>
-      </c>
-      <c r="I585" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="586" spans="1:9">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="s">
-        <v>0</v>
-      </c>
-      <c r="C586" t="s">
-        <v>1</v>
-      </c>
-      <c r="D586" t="n">
-        <v>585</v>
-      </c>
-      <c r="E586" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F586" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G586" t="n">
-        <v>1</v>
-      </c>
-      <c r="H586" t="s">
-        <v>4</v>
-      </c>
-      <c r="I586" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="587" spans="1:9">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="s">
-        <v>0</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1</v>
-      </c>
-      <c r="D587" t="n">
-        <v>586</v>
-      </c>
-      <c r="E587" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F587" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G587" t="n">
-        <v>3</v>
-      </c>
-      <c r="H587" t="s">
-        <v>4</v>
-      </c>
-      <c r="I587" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="588" spans="1:9">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="s">
-        <v>0</v>
-      </c>
-      <c r="C588" t="s">
-        <v>1</v>
-      </c>
-      <c r="D588" t="n">
-        <v>587</v>
-      </c>
-      <c r="E588" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F588" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G588" t="n">
-        <v>1</v>
-      </c>
-      <c r="H588" t="s">
-        <v>4</v>
-      </c>
-      <c r="I588" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="589" spans="1:9">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="s">
-        <v>0</v>
-      </c>
-      <c r="C589" t="s">
-        <v>1</v>
-      </c>
-      <c r="D589" t="n">
-        <v>588</v>
-      </c>
-      <c r="E589" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F589" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G589" t="n">
-        <v>1</v>
-      </c>
-      <c r="H589" t="s">
-        <v>4</v>
-      </c>
-      <c r="I589" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="590" spans="1:9">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="s">
-        <v>0</v>
-      </c>
-      <c r="C590" t="s">
-        <v>1</v>
-      </c>
-      <c r="D590" t="n">
-        <v>589</v>
-      </c>
-      <c r="E590" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F590" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G590" t="n">
-        <v>1</v>
-      </c>
-      <c r="H590" t="s">
-        <v>4</v>
-      </c>
-      <c r="I590" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="591" spans="1:9">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="s">
-        <v>0</v>
-      </c>
-      <c r="C591" t="s">
-        <v>1</v>
-      </c>
-      <c r="D591" t="n">
-        <v>590</v>
-      </c>
-      <c r="E591" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F591" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G591" t="n">
-        <v>1</v>
-      </c>
-      <c r="H591" t="s">
-        <v>4</v>
-      </c>
-      <c r="I591" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="592" spans="1:9">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C592" t="s">
-        <v>1</v>
-      </c>
-      <c r="D592" t="n">
-        <v>591</v>
-      </c>
-      <c r="E592" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F592" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G592" t="n">
-        <v>1</v>
-      </c>
-      <c r="H592" t="s">
-        <v>4</v>
-      </c>
-      <c r="I592" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="593" spans="1:9">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="s">
-        <v>0</v>
-      </c>
-      <c r="C593" t="s">
-        <v>1</v>
-      </c>
-      <c r="D593" t="n">
-        <v>592</v>
-      </c>
-      <c r="E593" t="s">
-        <v>691</v>
-      </c>
-      <c r="F593" t="s">
-        <v>692</v>
-      </c>
-      <c r="G593" t="n">
-        <v>1</v>
-      </c>
-      <c r="H593" t="s">
-        <v>4</v>
-      </c>
-      <c r="I593" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="594" spans="1:9">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="s">
-        <v>0</v>
-      </c>
-      <c r="C594" t="s">
-        <v>1</v>
-      </c>
-      <c r="D594" t="n">
-        <v>593</v>
-      </c>
-      <c r="E594" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F594" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G594" t="n">
-        <v>1</v>
-      </c>
-      <c r="H594" t="s">
-        <v>4</v>
-      </c>
-      <c r="I594" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="595" spans="1:9">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="s">
-        <v>0</v>
-      </c>
-      <c r="C595" t="s">
-        <v>1</v>
-      </c>
-      <c r="D595" t="n">
-        <v>594</v>
-      </c>
-      <c r="E595" t="s">
-        <v>415</v>
-      </c>
-      <c r="F595" t="s">
-        <v>416</v>
-      </c>
-      <c r="G595" t="n">
-        <v>0</v>
-      </c>
-      <c r="H595" t="s">
-        <v>4</v>
-      </c>
-      <c r="I595" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="596" spans="1:9">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="s">
-        <v>0</v>
-      </c>
-      <c r="C596" t="s">
-        <v>1</v>
-      </c>
-      <c r="D596" t="n">
-        <v>595</v>
-      </c>
-      <c r="E596" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F596" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G596" t="n">
-        <v>2</v>
-      </c>
-      <c r="H596" t="s">
-        <v>4</v>
-      </c>
-      <c r="I596" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="597" spans="1:9">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="s">
-        <v>0</v>
-      </c>
-      <c r="C597" t="s">
-        <v>1</v>
-      </c>
-      <c r="D597" t="n">
-        <v>596</v>
-      </c>
-      <c r="E597" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F597" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G597" t="n">
-        <v>1</v>
-      </c>
-      <c r="H597" t="s">
-        <v>4</v>
-      </c>
-      <c r="I597" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="598" spans="1:9">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="s">
-        <v>0</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1</v>
-      </c>
-      <c r="D598" t="n">
-        <v>597</v>
-      </c>
-      <c r="E598" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F598" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G598" t="n">
-        <v>1</v>
-      </c>
-      <c r="H598" t="s">
-        <v>4</v>
-      </c>
-      <c r="I598" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="599" spans="1:9">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="s">
-        <v>0</v>
-      </c>
-      <c r="C599" t="s">
-        <v>1</v>
-      </c>
-      <c r="D599" t="n">
-        <v>598</v>
-      </c>
-      <c r="E599" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F599" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G599" t="n">
-        <v>1</v>
-      </c>
-      <c r="H599" t="s">
-        <v>4</v>
-      </c>
-      <c r="I599" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="600" spans="1:9">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="s">
-        <v>0</v>
-      </c>
-      <c r="C600" t="s">
-        <v>1</v>
-      </c>
-      <c r="D600" t="n">
-        <v>599</v>
-      </c>
-      <c r="E600" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F600" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G600" t="n">
-        <v>1</v>
-      </c>
-      <c r="H600" t="s">
-        <v>4</v>
-      </c>
-      <c r="I600" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="601" spans="1:9">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="s">
-        <v>0</v>
-      </c>
-      <c r="C601" t="s">
-        <v>1</v>
-      </c>
-      <c r="D601" t="n">
-        <v>600</v>
-      </c>
-      <c r="E601" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F601" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G601" t="n">
-        <v>1</v>
-      </c>
-      <c r="H601" t="s">
-        <v>4</v>
-      </c>
-      <c r="I601" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="602" spans="1:9">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="s">
-        <v>0</v>
-      </c>
-      <c r="C602" t="s">
-        <v>1</v>
-      </c>
-      <c r="D602" t="n">
-        <v>601</v>
-      </c>
-      <c r="E602" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F602" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G602" t="n">
-        <v>1</v>
-      </c>
-      <c r="H602" t="s">
-        <v>4</v>
-      </c>
-      <c r="I602" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="603" spans="1:9">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="s">
-        <v>0</v>
-      </c>
-      <c r="C603" t="s">
-        <v>1</v>
-      </c>
-      <c r="D603" t="n">
-        <v>602</v>
-      </c>
-      <c r="E603" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F603" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G603" t="n">
-        <v>1</v>
-      </c>
-      <c r="H603" t="s">
-        <v>4</v>
-      </c>
-      <c r="I603" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="604" spans="1:9">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="s">
-        <v>0</v>
-      </c>
-      <c r="C604" t="s">
-        <v>1</v>
-      </c>
-      <c r="D604" t="n">
-        <v>603</v>
-      </c>
-      <c r="E604" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F604" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G604" t="n">
-        <v>1</v>
-      </c>
-      <c r="H604" t="s">
-        <v>4</v>
-      </c>
-      <c r="I604" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="605" spans="1:9">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C605" t="s">
-        <v>1</v>
-      </c>
-      <c r="D605" t="n">
-        <v>604</v>
-      </c>
-      <c r="E605" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F605" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G605" t="n">
-        <v>1</v>
-      </c>
-      <c r="H605" t="s">
-        <v>4</v>
-      </c>
-      <c r="I605" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="606" spans="1:9">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="s">
-        <v>0</v>
-      </c>
-      <c r="C606" t="s">
-        <v>1</v>
-      </c>
-      <c r="D606" t="n">
-        <v>605</v>
-      </c>
-      <c r="E606" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F606" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G606" t="n">
-        <v>0</v>
-      </c>
-      <c r="H606" t="s">
-        <v>4</v>
-      </c>
-      <c r="I606" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="607" spans="1:9">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="s">
-        <v>0</v>
-      </c>
-      <c r="C607" t="s">
-        <v>1</v>
-      </c>
-      <c r="D607" t="n">
-        <v>606</v>
-      </c>
-      <c r="E607" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F607" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G607" t="n">
-        <v>3</v>
-      </c>
-      <c r="H607" t="s">
-        <v>4</v>
-      </c>
-      <c r="I607" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="608" spans="1:9">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="s">
-        <v>0</v>
-      </c>
-      <c r="C608" t="s">
-        <v>1</v>
-      </c>
-      <c r="D608" t="n">
-        <v>607</v>
-      </c>
-      <c r="E608" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F608" t="s">
-        <v>1162</v>
-      </c>
-      <c r="G608" t="n">
-        <v>1</v>
-      </c>
-      <c r="H608" t="s">
-        <v>4</v>
-      </c>
-      <c r="I608" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="609" spans="1:9">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="s">
-        <v>0</v>
-      </c>
-      <c r="C609" t="s">
-        <v>1</v>
-      </c>
-      <c r="D609" t="n">
-        <v>608</v>
-      </c>
-      <c r="E609" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F609" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G609" t="n">
-        <v>1</v>
-      </c>
-      <c r="H609" t="s">
-        <v>4</v>
-      </c>
-      <c r="I609" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="610" spans="1:9">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="s">
-        <v>0</v>
-      </c>
-      <c r="C610" t="s">
-        <v>1</v>
-      </c>
-      <c r="D610" t="n">
-        <v>609</v>
-      </c>
-      <c r="E610" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F610" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G610" t="n">
-        <v>1</v>
-      </c>
-      <c r="H610" t="s">
-        <v>4</v>
-      </c>
-      <c r="I610" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="611" spans="1:9">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="s">
-        <v>0</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1</v>
-      </c>
-      <c r="D611" t="n">
-        <v>610</v>
-      </c>
-      <c r="E611" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F611" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G611" t="n">
-        <v>1</v>
-      </c>
-      <c r="H611" t="s">
-        <v>4</v>
-      </c>
-      <c r="I611" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="612" spans="1:9">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="s">
-        <v>0</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1</v>
-      </c>
-      <c r="D612" t="n">
-        <v>611</v>
-      </c>
-      <c r="E612" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F612" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G612" t="n">
-        <v>1</v>
-      </c>
-      <c r="H612" t="s">
-        <v>4</v>
-      </c>
-      <c r="I612" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="613" spans="1:9">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="s">
-        <v>0</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1</v>
-      </c>
-      <c r="D613" t="n">
-        <v>612</v>
-      </c>
-      <c r="E613" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F613" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G613" t="n">
-        <v>1</v>
-      </c>
-      <c r="H613" t="s">
-        <v>4</v>
-      </c>
-      <c r="I613" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="614" spans="1:9">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="s">
-        <v>0</v>
-      </c>
-      <c r="C614" t="s">
-        <v>1</v>
-      </c>
-      <c r="D614" t="n">
-        <v>613</v>
-      </c>
-      <c r="E614" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F614" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G614" t="n">
-        <v>1</v>
-      </c>
-      <c r="H614" t="s">
-        <v>4</v>
-      </c>
-      <c r="I614" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="615" spans="1:9">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="s">
-        <v>0</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1</v>
-      </c>
-      <c r="D615" t="n">
-        <v>614</v>
-      </c>
-      <c r="E615" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F615" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G615" t="n">
-        <v>1</v>
-      </c>
-      <c r="H615" t="s">
-        <v>4</v>
-      </c>
-      <c r="I615" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="616" spans="1:9">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="s">
-        <v>0</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1</v>
-      </c>
-      <c r="D616" t="n">
-        <v>615</v>
-      </c>
-      <c r="E616" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F616" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G616" t="n">
-        <v>1</v>
-      </c>
-      <c r="H616" t="s">
-        <v>4</v>
-      </c>
-      <c r="I616" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="617" spans="1:9">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="s">
-        <v>0</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1</v>
-      </c>
-      <c r="D617" t="n">
-        <v>616</v>
-      </c>
-      <c r="E617" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F617" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G617" t="n">
-        <v>1</v>
-      </c>
-      <c r="H617" t="s">
-        <v>4</v>
-      </c>
-      <c r="I617" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="618" spans="1:9">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="s">
-        <v>0</v>
-      </c>
-      <c r="C618" t="s">
-        <v>1</v>
-      </c>
-      <c r="D618" t="n">
-        <v>617</v>
-      </c>
-      <c r="E618" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F618" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G618" t="n">
-        <v>1</v>
-      </c>
-      <c r="H618" t="s">
-        <v>4</v>
-      </c>
-      <c r="I618" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="619" spans="1:9">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="s">
-        <v>0</v>
-      </c>
-      <c r="C619" t="s">
-        <v>1</v>
-      </c>
-      <c r="D619" t="n">
-        <v>618</v>
-      </c>
-      <c r="E619" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F619" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G619" t="n">
-        <v>1</v>
-      </c>
-      <c r="H619" t="s">
-        <v>4</v>
-      </c>
-      <c r="I619" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="620" spans="1:9">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="s">
-        <v>0</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1</v>
-      </c>
-      <c r="D620" t="n">
-        <v>619</v>
-      </c>
-      <c r="E620" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F620" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G620" t="n">
-        <v>1</v>
-      </c>
-      <c r="H620" t="s">
-        <v>4</v>
-      </c>
-      <c r="I620" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="621" spans="1:9">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="s">
-        <v>0</v>
-      </c>
-      <c r="C621" t="s">
-        <v>1</v>
-      </c>
-      <c r="D621" t="n">
-        <v>620</v>
-      </c>
-      <c r="E621" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F621" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G621" t="n">
-        <v>1</v>
-      </c>
-      <c r="H621" t="s">
-        <v>4</v>
-      </c>
-      <c r="I621" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="622" spans="1:9">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="s">
-        <v>0</v>
-      </c>
-      <c r="C622" t="s">
-        <v>1</v>
-      </c>
-      <c r="D622" t="n">
-        <v>621</v>
-      </c>
-      <c r="E622" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F622" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G622" t="n">
-        <v>1</v>
-      </c>
-      <c r="H622" t="s">
-        <v>4</v>
-      </c>
-      <c r="I622" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="623" spans="1:9">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="s">
-        <v>0</v>
-      </c>
-      <c r="C623" t="s">
-        <v>1</v>
-      </c>
-      <c r="D623" t="n">
-        <v>622</v>
-      </c>
-      <c r="E623" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F623" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G623" t="n">
-        <v>1</v>
-      </c>
-      <c r="H623" t="s">
-        <v>4</v>
-      </c>
-      <c r="I623" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="624" spans="1:9">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="s">
-        <v>0</v>
-      </c>
-      <c r="C624" t="s">
-        <v>1</v>
-      </c>
-      <c r="D624" t="n">
-        <v>623</v>
-      </c>
-      <c r="E624" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F624" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G624" t="n">
-        <v>1</v>
-      </c>
-      <c r="H624" t="s">
-        <v>4</v>
-      </c>
-      <c r="I624" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="625" spans="1:9">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="s">
-        <v>0</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1</v>
-      </c>
-      <c r="D625" t="n">
-        <v>624</v>
-      </c>
-      <c r="E625" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F625" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G625" t="n">
-        <v>1</v>
-      </c>
-      <c r="H625" t="s">
-        <v>4</v>
-      </c>
-      <c r="I625" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="626" spans="1:9">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="s">
-        <v>0</v>
-      </c>
-      <c r="C626" t="s">
-        <v>1</v>
-      </c>
-      <c r="D626" t="n">
-        <v>625</v>
-      </c>
-      <c r="E626" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F626" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G626" t="n">
-        <v>1</v>
-      </c>
-      <c r="H626" t="s">
-        <v>4</v>
-      </c>
-      <c r="I626" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="627" spans="1:9">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="s">
-        <v>0</v>
-      </c>
-      <c r="C627" t="s">
-        <v>1</v>
-      </c>
-      <c r="D627" t="n">
-        <v>626</v>
-      </c>
-      <c r="E627" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F627" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G627" t="n">
-        <v>1</v>
-      </c>
-      <c r="H627" t="s">
-        <v>4</v>
-      </c>
-      <c r="I627" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="628" spans="1:9">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C628" t="s">
-        <v>1</v>
-      </c>
-      <c r="D628" t="n">
-        <v>627</v>
-      </c>
-      <c r="E628" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F628" t="s">
-        <v>1202</v>
-      </c>
-      <c r="G628" t="n">
-        <v>1</v>
-      </c>
-      <c r="H628" t="s">
-        <v>4</v>
-      </c>
-      <c r="I628" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="629" spans="1:9">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="s">
-        <v>0</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1</v>
-      </c>
-      <c r="D629" t="n">
-        <v>628</v>
-      </c>
-      <c r="E629" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F629" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G629" t="n">
-        <v>1</v>
-      </c>
-      <c r="H629" t="s">
-        <v>4</v>
-      </c>
-      <c r="I629" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="630" spans="1:9">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="s">
-        <v>0</v>
-      </c>
-      <c r="C630" t="s">
-        <v>1</v>
-      </c>
-      <c r="D630" t="n">
-        <v>629</v>
-      </c>
-      <c r="E630" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F630" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G630" t="n">
-        <v>1</v>
-      </c>
-      <c r="H630" t="s">
-        <v>4</v>
-      </c>
-      <c r="I630" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="631" spans="1:9">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="s">
-        <v>0</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1</v>
-      </c>
-      <c r="D631" t="n">
-        <v>630</v>
-      </c>
-      <c r="E631" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F631" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G631" t="n">
-        <v>1</v>
-      </c>
-      <c r="H631" t="s">
-        <v>4</v>
-      </c>
-      <c r="I631" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="632" spans="1:9">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="s">
-        <v>0</v>
-      </c>
-      <c r="C632" t="s">
-        <v>1</v>
-      </c>
-      <c r="D632" t="n">
-        <v>631</v>
-      </c>
-      <c r="E632" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F632" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G632" t="n">
-        <v>1</v>
-      </c>
-      <c r="H632" t="s">
-        <v>4</v>
-      </c>
-      <c r="I632" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="633" spans="1:9">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="s">
-        <v>0</v>
-      </c>
-      <c r="C633" t="s">
-        <v>1</v>
-      </c>
-      <c r="D633" t="n">
-        <v>632</v>
-      </c>
-      <c r="E633" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F633" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G633" t="n">
-        <v>1</v>
-      </c>
-      <c r="H633" t="s">
-        <v>4</v>
-      </c>
-      <c r="I633" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="634" spans="1:9">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="s">
-        <v>0</v>
-      </c>
-      <c r="C634" t="s">
-        <v>1</v>
-      </c>
-      <c r="D634" t="n">
-        <v>633</v>
-      </c>
-      <c r="E634" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F634" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G634" t="n">
-        <v>1</v>
-      </c>
-      <c r="H634" t="s">
-        <v>4</v>
-      </c>
-      <c r="I634" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="635" spans="1:9">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="s">
-        <v>0</v>
-      </c>
-      <c r="C635" t="s">
-        <v>1</v>
-      </c>
-      <c r="D635" t="n">
-        <v>634</v>
-      </c>
-      <c r="E635" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F635" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G635" t="n">
-        <v>1</v>
-      </c>
-      <c r="H635" t="s">
-        <v>4</v>
-      </c>
-      <c r="I635" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="636" spans="1:9">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="s">
-        <v>0</v>
-      </c>
-      <c r="C636" t="s">
-        <v>1</v>
-      </c>
-      <c r="D636" t="n">
-        <v>635</v>
-      </c>
-      <c r="E636" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F636" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G636" t="n">
-        <v>1</v>
-      </c>
-      <c r="H636" t="s">
-        <v>4</v>
-      </c>
-      <c r="I636" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="637" spans="1:9">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="s">
-        <v>0</v>
-      </c>
-      <c r="C637" t="s">
-        <v>1</v>
-      </c>
-      <c r="D637" t="n">
-        <v>636</v>
-      </c>
-      <c r="E637" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F637" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G637" t="n">
-        <v>1</v>
-      </c>
-      <c r="H637" t="s">
-        <v>4</v>
-      </c>
-      <c r="I637" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="638" spans="1:9">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="s">
-        <v>0</v>
-      </c>
-      <c r="C638" t="s">
-        <v>1</v>
-      </c>
-      <c r="D638" t="n">
-        <v>637</v>
-      </c>
-      <c r="E638" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F638" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G638" t="n">
-        <v>1</v>
-      </c>
-      <c r="H638" t="s">
-        <v>4</v>
-      </c>
-      <c r="I638" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="639" spans="1:9">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="s">
-        <v>0</v>
-      </c>
-      <c r="C639" t="s">
-        <v>1</v>
-      </c>
-      <c r="D639" t="n">
-        <v>638</v>
-      </c>
-      <c r="E639" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F639" t="s">
-        <v>1222</v>
-      </c>
-      <c r="G639" t="n">
-        <v>1</v>
-      </c>
-      <c r="H639" t="s">
-        <v>4</v>
-      </c>
-      <c r="I639" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="640" spans="1:9">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="s">
-        <v>0</v>
-      </c>
-      <c r="C640" t="s">
-        <v>1</v>
-      </c>
-      <c r="D640" t="n">
-        <v>639</v>
-      </c>
-      <c r="E640" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F640" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G640" t="n">
-        <v>3</v>
-      </c>
-      <c r="H640" t="s">
-        <v>4</v>
-      </c>
-      <c r="I640" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="641" spans="1:9">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="s">
-        <v>0</v>
-      </c>
-      <c r="C641" t="s">
-        <v>1</v>
-      </c>
-      <c r="D641" t="n">
-        <v>640</v>
-      </c>
-      <c r="E641" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F641" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G641" t="n">
-        <v>1</v>
-      </c>
-      <c r="H641" t="s">
-        <v>4</v>
-      </c>
-      <c r="I641" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="642" spans="1:9">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="s">
-        <v>0</v>
-      </c>
-      <c r="C642" t="s">
-        <v>1</v>
-      </c>
-      <c r="D642" t="n">
-        <v>641</v>
-      </c>
-      <c r="E642" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F642" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G642" t="n">
-        <v>1</v>
-      </c>
-      <c r="H642" t="s">
-        <v>4</v>
-      </c>
-      <c r="I642" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="643" spans="1:9">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="s">
-        <v>0</v>
-      </c>
-      <c r="C643" t="s">
-        <v>1</v>
-      </c>
-      <c r="D643" t="n">
-        <v>642</v>
-      </c>
-      <c r="E643" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F643" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G643" t="n">
-        <v>1</v>
-      </c>
-      <c r="H643" t="s">
-        <v>4</v>
-      </c>
-      <c r="I643" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="644" spans="1:9">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="s">
-        <v>0</v>
-      </c>
-      <c r="C644" t="s">
-        <v>1</v>
-      </c>
-      <c r="D644" t="n">
-        <v>643</v>
-      </c>
-      <c r="E644" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F644" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G644" t="n">
-        <v>1</v>
-      </c>
-      <c r="H644" t="s">
-        <v>4</v>
-      </c>
-      <c r="I644" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="645" spans="1:9">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="s">
-        <v>0</v>
-      </c>
-      <c r="C645" t="s">
-        <v>1</v>
-      </c>
-      <c r="D645" t="n">
-        <v>644</v>
-      </c>
-      <c r="E645" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F645" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G645" t="n">
-        <v>1</v>
-      </c>
-      <c r="H645" t="s">
-        <v>4</v>
-      </c>
-      <c r="I645" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="646" spans="1:9">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="s">
-        <v>0</v>
-      </c>
-      <c r="C646" t="s">
-        <v>1</v>
-      </c>
-      <c r="D646" t="n">
-        <v>645</v>
-      </c>
-      <c r="E646" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F646" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G646" t="n">
-        <v>1</v>
-      </c>
-      <c r="H646" t="s">
-        <v>4</v>
-      </c>
-      <c r="I646" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="647" spans="1:9">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="s">
-        <v>0</v>
-      </c>
-      <c r="C647" t="s">
-        <v>1</v>
-      </c>
-      <c r="D647" t="n">
-        <v>646</v>
-      </c>
-      <c r="E647" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F647" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G647" t="n">
-        <v>1</v>
-      </c>
-      <c r="H647" t="s">
-        <v>4</v>
-      </c>
-      <c r="I647" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="648" spans="1:9">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="s">
-        <v>0</v>
-      </c>
-      <c r="C648" t="s">
-        <v>1</v>
-      </c>
-      <c r="D648" t="n">
-        <v>647</v>
-      </c>
-      <c r="E648" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F648" t="s">
-        <v>1240</v>
-      </c>
-      <c r="G648" t="n">
-        <v>3</v>
-      </c>
-      <c r="H648" t="s">
-        <v>4</v>
-      </c>
-      <c r="I648" t="n">
         <v>3</v>
       </c>
     </row>
